--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\little Hong\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874267A-04D0-4C79-BFDA-9E6F81F233CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9F721F-8D4F-4504-9756-89E40FCD8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기획_직업" sheetId="3" r:id="rId1"/>
@@ -26,22 +26,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">QA_기본기능!$J$3:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="207">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -791,6 +780,68 @@
   </si>
   <si>
     <t>뒤로가기 시 이전 메뉴로 뒤로가기 가능하고 프로그램이 멈추지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 정보 메뉴 코드 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 정보 - 플레이어 직업 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 플레이어 직업 정보
+1. 기사
+- 공격력이 낮은 대신, 방어력이 높은 직업입니다.
+2. 궁수
+- 공격력 보통, 방어력이 보통인 아주 평범한 직업입니다.
+3. 마법사
+- 공격력이 높은 대신, 방어력이 낮은 직업입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 정보 - 전투 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 전투
+- 메인 메뉴의 '1. 맵' 메뉴에서 공격할 몬스터의 난이도를 선택할 수 있습니다.
+쉬움, 보통, 어려움 단계가 있으며 쉬움에는 1레벨 몬스터, 보통에는 5레벨 몬스터, 어려움에는 10레벨 몬스터가 있습니다.
+- 몬스터를 잡아 경험치를 획득할 수 있고, 경험치를 모아 레벨이 오를 경우 레벨에 따라 플레이어의 기본 스탯이 오릅니다.
+- 몬스터를 잡아 골드를 획득할 수 있고 골드를 모아 상점에서 아이템을 구매할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 정보 - 상점 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) 상점
+- 메인 메뉴의 '2. 상점' 메뉴에서 무기, 방어구 아이템을 구매할 수 있습니다.
+- 무기를 구매해 착용 후 몬스터를 공격하면 무기 치명타율에 따라 몬스터에게 치명타를 입힐 수 있습니다. (치명타는 기본 공격의 2배의 데미지를 입힙니다.)
+- 무기를 구매해 착용하면 공격력, 치명타율 스탯이 올라갑니다.
+- 방어구를 구매해 착용하면 방어력 스탯이 올라갑니다.
+- 골드를 모아 무기, 방어구를 구매해 더 높은 난이도의 몬스터를 잡아보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 정보 - 인벤토리 스크립트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4) 인벤토리
+- 아이템을 구매해 착용할 수 있습니다.
+- 같은 종류의 아이템을 착용하게 될 경우, 기존 아이템이 장착 해제되고 새로 장착한 아이템의 스탯이 적용됩니다.
+- 아이템은 무기 1개, 방어구 1개만 착용 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,15 +1267,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1239,9 +1287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1358,25 +1403,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1396,6 +1432,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1420,15 +1465,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1935,136 +2002,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481DD1C-D151-45F4-BE8D-C6D2A2BCEF98}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="10" width="14.8984375" customWidth="1"/>
-    <col min="11" max="33" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="33" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="85" customFormat="1">
+      <c r="A1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="84" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>15</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>20</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <v>500</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="14">
         <v>100</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61">
         <f>SUM(B2,E2:F2)/2</f>
         <v>262.5</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="61">
         <f>SUM(C2:F2)/2</f>
         <v>272.5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>15</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>10</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>15</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>400</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>200</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>15</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>20</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>10</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>300</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>300</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+    </row>
+    <row r="9" spans="1:10" ht="123" customHeight="1">
+      <c r="A9" s="79" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2072,69 +2157,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB345A4-A0F8-4050-8D1A-C9A53942955C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="30" width="25.59765625" customWidth="1"/>
+    <col min="1" max="30" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="81" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="64"/>
+      <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="64"/>
-    </row>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,199 +2229,199 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="14.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.8984375" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.69921875" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.8984375" style="1" customWidth="1"/>
-    <col min="15" max="37" width="25.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.75" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="15" max="37" width="25.625" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:14" s="85" customFormat="1">
+      <c r="A1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="81" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>10</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>20</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>5</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>10</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="57">
         <v>1</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>1000</v>
       </c>
-      <c r="K2" s="60">
+      <c r="K2" s="57">
         <v>1000</v>
       </c>
-      <c r="L2" s="60">
+      <c r="L2" s="57">
         <v>2000</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="58">
         <f>SUM(C2,F2:G2)/2</f>
         <v>57.5</v>
       </c>
-      <c r="N2" s="61">
+      <c r="N2" s="58">
         <f>SUM(D2:G2)/2</f>
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>50</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>80</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>40</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>60</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>2000</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>300</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="57">
         <v>5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>7000</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="57">
         <v>5000</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="57">
         <v>7000</v>
       </c>
-      <c r="M3" s="61">
+      <c r="M3" s="58">
         <f>SUM(C3,F3:G3)/2</f>
         <v>1055</v>
       </c>
-      <c r="N3" s="61">
+      <c r="N3" s="58">
         <f>SUM(D3:G3)/2</f>
         <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>150</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>250</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>150</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>250</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>10000</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <v>1200</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="57">
         <v>10</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>25000</v>
       </c>
-      <c r="K4" s="60">
+      <c r="K4" s="57">
         <v>30000</v>
       </c>
-      <c r="L4" s="60">
+      <c r="L4" s="57">
         <v>50000</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5"/>
@@ -2369,7 +2455,31 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" ht="137.25" customHeight="1">
+      <c r="A10" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2381,71 +2491,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D22D406-0FE4-425E-ADEF-786991B5079A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="25" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" s="89" customFormat="1">
+      <c r="A1" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="83" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>5</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>10</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="15">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>20</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>30</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>70</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>100</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>0.35</v>
       </c>
     </row>
@@ -2453,50 +2563,88 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>20</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>70</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>100</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+    </row>
+    <row r="18" spans="1:4" ht="126" customHeight="1">
+      <c r="A18" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+    </row>
+    <row r="21" spans="1:4" ht="76.5" customHeight="1">
+      <c r="A21" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2506,789 +2654,789 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C0BC92-96EB-4C7B-A3F5-3F0E8A8E7F08}">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="82.8984375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="18.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="11" customWidth="1"/>
-    <col min="9" max="20" width="15.59765625" style="9" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="9"/>
+    <col min="1" max="1" width="2.25" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="82.875" style="3" customWidth="1"/>
+    <col min="4" max="5" width="18.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.75" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="10" customWidth="1"/>
+    <col min="9" max="20" width="15.625" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.8" customHeight="1">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="B1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="23" customFormat="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="21" customFormat="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="24"/>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="24"/>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="24"/>
+      <c r="F6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="24"/>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="24"/>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="24"/>
+      <c r="F9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="24"/>
+      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="24"/>
+      <c r="F11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="24"/>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="24"/>
+      <c r="F13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M14" s="24"/>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="24"/>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="24"/>
+      <c r="F16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="24"/>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="24"/>
+      <c r="F18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="24"/>
+      <c r="F19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="24"/>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="F21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" s="24"/>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" s="25"/>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M23" s="25"/>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="25"/>
+      <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M25" s="25"/>
+      <c r="F25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M26" s="25"/>
+      <c r="F26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M27" s="24"/>
+      <c r="F27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="25"/>
+      <c r="F28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="25"/>
+      <c r="F29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="25"/>
+      <c r="F30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="F31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="25"/>
+      <c r="F31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="F32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" s="25"/>
+      <c r="F32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="6:6">
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="6:6">
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="6:6">
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="6:6">
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="6:6">
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="6:6">
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="6:6">
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="6:6">
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="6:6">
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="6:6">
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="6:6">
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="6:6">
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="6:6">
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="6:6">
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="6:6">
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="6:6">
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="6:6">
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="6:6">
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="6:6">
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="6:6">
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="6:6">
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="6:6">
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="6:6">
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="6:6">
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="6:6">
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="6:6">
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="6:6">
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="6:6">
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="6:6">
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="6:6">
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="6:6">
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="6:6">
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="6:6">
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="6:6">
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="6:6">
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="74" spans="6:6">
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="6:6">
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="6:6">
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="6:6">
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="79" spans="6:6">
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" spans="6:6">
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="6:6">
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="6:6">
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="84" spans="6:6">
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="6:6">
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="6:6">
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="6:6">
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="6:6">
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="6:6">
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="6:6">
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="6:6">
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="6:6">
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="6:6">
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="6:6">
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="6:6">
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="6:6">
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="6:6">
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="98" spans="6:6">
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="6:6">
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="100" spans="6:6">
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="6:6">
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="6:6">
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="103" spans="6:6">
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="104" spans="6:6">
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="105" spans="6:6">
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="6:6">
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="6:6">
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="6:6">
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="6:6">
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="110" spans="6:6">
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="111" spans="6:6">
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="6:6">
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="113" spans="6:6">
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="5" t="s">
+      <c r="F119" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="5" t="s">
+      <c r="F120" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3338,1246 +3486,1246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA945F70-6D3D-4B47-8D46-C14231EC5BF9}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="36.296875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="52.3984375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="34.69921875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="31.296875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.3984375" style="83" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="19"/>
+    <col min="1" max="1" width="13.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="52.375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="34.75" style="28" customWidth="1"/>
+    <col min="6" max="6" width="31.25" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="17" customWidth="1"/>
+    <col min="8" max="8" width="35.375" style="70" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="33" customFormat="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" s="31" customFormat="1">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="68" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="69.599999999999994">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:8" ht="82.5">
+      <c r="A2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="82"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997">
-      <c r="A3" s="20" t="s">
+      <c r="G2" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" ht="33">
+      <c r="A3" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="35" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="82"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="82"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="69"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="82"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="69"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="82"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="82"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="82"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="82"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="69"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="82"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="82"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="82"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="82"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="69"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="82"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="82"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="69"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="82"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="69"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="82"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="69"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="82"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="69"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="82"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="69"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="82"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="82"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="69"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="82"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="69"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="82"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="69"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="82"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="82"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="69"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="82"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="69"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="82"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="69"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="82"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="82"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="69"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="82"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="82"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="69"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="82"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="82"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="82"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="82"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="82"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="82"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="82"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="69"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="82"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="69"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="82"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="69"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="82"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="82"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="69"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="82"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="69"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="82"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="69"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" s="82"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="82"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="69"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" s="82"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="82"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" s="69"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" s="82"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="69"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" s="82"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="69"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" s="82"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="69"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" s="82"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" s="69"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" s="82"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="69"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="82"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="69"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" s="82"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H56" s="82"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="69"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" s="82"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="69"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" s="82"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="69"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" s="82"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="82"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="69"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H61" s="82"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="69"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" s="82"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="69"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="82"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" s="69"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="82"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="69"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H65" s="82"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" s="69"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H66" s="82"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="69"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" s="82"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" s="69"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" s="82"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" s="69"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H69" s="82"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="69"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" s="82"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" s="69"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H71" s="82"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" s="69"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H72" s="82"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" s="69"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H73" s="82"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" s="69"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H74" s="82"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="69"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H75" s="82"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" s="69"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="20"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" s="82"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="69"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="20"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H77" s="82"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="69"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H78" s="82"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="69"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79" s="82"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="69"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H80" s="82"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" s="69"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="20"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H81" s="82"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="69"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="20"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H82" s="82"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="69"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="20"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" s="82"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" s="69"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="20"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" s="82"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" s="69"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="20"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" s="82"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="69"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="20"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H86" s="82"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="69"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H87" s="82"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" s="69"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H88" s="82"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" s="69"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="20"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H89" s="82"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" s="69"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="20"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H90" s="82"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" s="69"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="20"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H91" s="82"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="69"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="20"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" s="82"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" s="69"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="20"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H93" s="82"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" s="69"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="20"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H94" s="82"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" s="69"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="20"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H95" s="82"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" s="69"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="20"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H96" s="82"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" s="69"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="20"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H97" s="82"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" s="69"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="20"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H98" s="82"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" s="69"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="20"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H99" s="82"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4621,1391 +4769,1412 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.296875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" style="39" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="63.8984375" style="52" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="37.69921875" style="70" customWidth="1"/>
-    <col min="8" max="9" width="13.3984375" style="36" customWidth="1"/>
-    <col min="10" max="20" width="15.59765625" style="38" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="38"/>
+    <col min="1" max="1" width="2.25" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="37" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="37" customWidth="1"/>
+    <col min="4" max="4" width="63.875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="37" customWidth="1"/>
+    <col min="7" max="7" width="37.75" style="65" customWidth="1"/>
+    <col min="8" max="9" width="13.375" style="34" customWidth="1"/>
+    <col min="10" max="20" width="15.625" style="36" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.8" customHeight="1">
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="H1" s="67"/>
+      <c r="I1" s="66"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.899999999999999" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="48" customFormat="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="49"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="49"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" s="49"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="E12" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="33">
+      <c r="B14" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" ht="33">
+      <c r="B15" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="16" spans="1:13" ht="33">
+      <c r="B16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="71"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.8" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" s="50" customFormat="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="39" t="s">
+      <c r="M16" s="49"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="M17" s="49"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="M19" s="49"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="E21" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="M21" s="49"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="E22" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="M22" s="49"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C23" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="E24" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" s="49"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="M25" s="49"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="M26" s="49"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="M27" s="49"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="C28" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="M28" s="49"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="M29" s="49"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="M30" s="49"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="39" t="s">
+      <c r="D31" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="M31" s="51"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="C32" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="M32" s="51"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="M33" s="51"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="C34" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="M34" s="51"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="M35" s="49"/>
+    </row>
+    <row r="36" spans="2:13" ht="33">
+      <c r="B36" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="H4" s="39" t="s">
+      <c r="G36" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="51"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="39" t="s">
+      <c r="I36" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="M36" s="51"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="M37" s="51"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="37"/>
+      <c r="M38" s="51"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="37"/>
+      <c r="M39" s="51"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="37"/>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="E41" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="E43" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="2:13" ht="33">
+      <c r="B45" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C45" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="D46" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" s="39" t="s">
+      <c r="G46" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="39" t="s">
+      <c r="I46" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="33">
+      <c r="B47" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="2:13" ht="33">
+      <c r="B48" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="39" t="s">
+      <c r="C48" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>181</v>
-      </c>
-      <c r="M6" s="51"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="67" t="s">
+      <c r="G49" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H49" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="39" t="s">
+      <c r="I49" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C50" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="34.799999999999997">
-      <c r="B15" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="34.799999999999997">
-      <c r="B16" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="M17" s="51"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="39"/>
-      <c r="M18" s="51"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="39"/>
-      <c r="M19" s="51"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="M20" s="51"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="E21" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="M21" s="51"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="E22" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="39"/>
-      <c r="M22" s="51"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I23" s="39"/>
-      <c r="M23" s="51"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="E24" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="39"/>
-      <c r="M24" s="51"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="39"/>
-      <c r="M25" s="51"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="39"/>
-      <c r="M26" s="51"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="M27" s="51"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="C28" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="39"/>
-      <c r="M28" s="51"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="M29" s="51"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="M30" s="51"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="M31" s="53"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="C32" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="M32" s="53"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="39"/>
-      <c r="M33" s="53"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="C34" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="39"/>
-      <c r="M34" s="53"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="39"/>
-      <c r="M35" s="51"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>188</v>
-      </c>
-      <c r="M36" s="53"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="39"/>
-      <c r="M37" s="53"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="39"/>
-      <c r="M38" s="53"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="39"/>
-      <c r="M39" s="53"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="M40" s="53"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="E41" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="39"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>163</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="39"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="E43" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="39"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="39"/>
-    </row>
-    <row r="45" spans="2:13" ht="34.799999999999997">
-      <c r="B45" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="39"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="F46" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="67" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="34.799999999999997">
-      <c r="B47" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G47" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="H47" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="39"/>
-    </row>
-    <row r="48" spans="2:13" ht="34.799999999999997">
-      <c r="B48" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="H48" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G49" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" s="67" t="s">
-        <v>182</v>
-      </c>
-      <c r="I49" s="67" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="F50" s="39" t="s">
-        <v>46</v>
+      <c r="D50" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="62" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="2:9">
-      <c r="F51" s="39" t="s">
+      <c r="F51" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:9">
-      <c r="F52" s="39" t="s">
+      <c r="F52" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:9">
-      <c r="F53" s="39" t="s">
+      <c r="F53" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="54" spans="2:9">
-      <c r="F54" s="39" t="s">
+      <c r="F54" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="2:9">
-      <c r="F55" s="39" t="s">
+      <c r="F55" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="2:9">
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:9">
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:9">
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:9">
-      <c r="F59" s="39" t="s">
+      <c r="F59" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:9">
-      <c r="F60" s="39" t="s">
+      <c r="F60" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:9">
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:9">
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="63" spans="2:9">
-      <c r="F63" s="39" t="s">
+      <c r="F63" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="6:6">
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="66" spans="6:6">
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="67" spans="6:6">
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="68" spans="6:6">
-      <c r="F68" s="39" t="s">
+      <c r="F68" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="69" spans="6:6">
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="6:6">
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="6:6">
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="72" spans="6:6">
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="6:6">
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="74" spans="6:6">
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="6:6">
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="6:6">
-      <c r="F76" s="39" t="s">
+      <c r="F76" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="77" spans="6:6">
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="78" spans="6:6">
-      <c r="F78" s="39" t="s">
+      <c r="F78" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="79" spans="6:6">
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="80" spans="6:6">
-      <c r="F80" s="39" t="s">
+      <c r="F80" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="81" spans="6:6">
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="39" t="s">
+      <c r="F82" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="83" spans="6:6">
-      <c r="F83" s="39" t="s">
+      <c r="F83" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="84" spans="6:6">
-      <c r="F84" s="39" t="s">
+      <c r="F84" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="85" spans="6:6">
-      <c r="F85" s="39" t="s">
+      <c r="F85" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="86" spans="6:6">
-      <c r="F86" s="39" t="s">
+      <c r="F86" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="6:6">
-      <c r="F87" s="39" t="s">
+      <c r="F87" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="6:6">
-      <c r="F88" s="39" t="s">
+      <c r="F88" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="6:6">
-      <c r="F89" s="39" t="s">
+      <c r="F89" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="90" spans="6:6">
-      <c r="F90" s="39" t="s">
+      <c r="F90" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="6:6">
-      <c r="F91" s="39" t="s">
+      <c r="F91" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="92" spans="6:6">
-      <c r="F92" s="39" t="s">
+      <c r="F92" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="93" spans="6:6">
-      <c r="F93" s="39" t="s">
+      <c r="F93" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="6:6">
-      <c r="F94" s="39" t="s">
+      <c r="F94" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="6:6">
-      <c r="F95" s="39" t="s">
+      <c r="F95" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="96" spans="6:6">
-      <c r="F96" s="39" t="s">
+      <c r="F96" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="97" spans="6:6">
-      <c r="F97" s="39" t="s">
+      <c r="F97" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="98" spans="6:6">
-      <c r="F98" s="39" t="s">
+      <c r="F98" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="99" spans="6:6">
-      <c r="F99" s="39" t="s">
+      <c r="F99" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="100" spans="6:6">
-      <c r="F100" s="39" t="s">
+      <c r="F100" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="101" spans="6:6">
-      <c r="F101" s="39" t="s">
+      <c r="F101" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="6:6">
-      <c r="F102" s="39" t="s">
+      <c r="F102" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="103" spans="6:6">
-      <c r="F103" s="39" t="s">
+      <c r="F103" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="104" spans="6:6">
-      <c r="F104" s="39" t="s">
+      <c r="F104" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="105" spans="6:6">
-      <c r="F105" s="39" t="s">
+      <c r="F105" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="106" spans="6:6">
-      <c r="F106" s="39" t="s">
+      <c r="F106" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="107" spans="6:6">
-      <c r="F107" s="39" t="s">
+      <c r="F107" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="108" spans="6:6">
-      <c r="F108" s="39" t="s">
+      <c r="F108" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="109" spans="6:6">
-      <c r="F109" s="39" t="s">
+      <c r="F109" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="110" spans="6:6">
-      <c r="F110" s="39" t="s">
+      <c r="F110" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="111" spans="6:6">
-      <c r="F111" s="39" t="s">
+      <c r="F111" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="6:6">
-      <c r="F112" s="39" t="s">
+      <c r="F112" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="113" spans="6:6">
-      <c r="F113" s="39" t="s">
+      <c r="F113" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="114" spans="6:6">
-      <c r="F114" s="39" t="s">
+      <c r="F114" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="115" spans="6:6">
-      <c r="F115" s="39" t="s">
+      <c r="F115" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="116" spans="6:6">
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="117" spans="6:6">
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="118" spans="6:6">
-      <c r="F118" s="39" t="s">
+      <c r="F118" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="119" spans="6:6">
-      <c r="F119" s="39" t="s">
+      <c r="F119" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="120" spans="6:6">
-      <c r="F120" s="39" t="s">
+      <c r="F120" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="121" spans="6:6">
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="122" spans="6:6">
-      <c r="F122" s="39" t="s">
+      <c r="F122" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="123" spans="6:6">
-      <c r="F123" s="39" t="s">
+      <c r="F123" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124" spans="6:6">
-      <c r="F124" s="39" t="s">
+      <c r="F124" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="125" spans="6:6">
-      <c r="F125" s="39" t="s">
+      <c r="F125" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126" spans="6:6">
-      <c r="F126" s="39" t="s">
+      <c r="F126" s="37" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="127" spans="6:6">
-      <c r="F127" s="39" t="s">
+      <c r="F127" s="37" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6084,101 +6253,101 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>65</v>
       </c>
     </row>

--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9F721F-8D4F-4504-9756-89E40FCD8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45D0C1-4EA0-4436-AA15-2C66B875F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="208">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,6 +842,10 @@
   </si>
   <si>
     <t>Version.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,6 +1445,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1465,37 +1500,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2002,52 +2006,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481DD1C-D151-45F4-BE8D-C6D2A2BCEF98}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="33" width="25.625" customWidth="1"/>
+    <col min="2" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="34" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="85" customFormat="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" s="75" customFormat="1">
+      <c r="A1" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="F1" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="G1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="H1" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="I1" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="J1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="K1" s="74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
@@ -2058,28 +2065,31 @@
         <v>10</v>
       </c>
       <c r="D2" s="14">
+        <v>5</v>
+      </c>
+      <c r="E2" s="14">
         <v>15</v>
       </c>
-      <c r="E2" s="14">
+      <c r="F2" s="14">
         <v>20</v>
       </c>
-      <c r="F2" s="14">
+      <c r="G2" s="14">
         <v>500</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="14">
         <v>100</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61">
-        <f>SUM(B2,E2:F2)/2</f>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61">
+        <f>SUM(B2,F2:G2)/2</f>
         <v>262.5</v>
       </c>
-      <c r="J2" s="61">
-        <f>SUM(C2:F2)/2</f>
-        <v>272.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="61">
+        <f>SUM(C2:G2)/2</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
         <v>34</v>
       </c>
@@ -2090,22 +2100,25 @@
         <v>15</v>
       </c>
       <c r="D3" s="14">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
         <v>10</v>
       </c>
-      <c r="E3" s="14">
+      <c r="F3" s="14">
         <v>15</v>
       </c>
-      <c r="F3" s="14">
+      <c r="G3" s="14">
         <v>400</v>
       </c>
-      <c r="G3" s="14">
+      <c r="H3" s="14">
         <v>200</v>
       </c>
-      <c r="H3" s="61"/>
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
@@ -2119,26 +2132,29 @@
         <v>5</v>
       </c>
       <c r="E4" s="14">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14">
         <v>10</v>
-      </c>
-      <c r="F4" s="14">
-        <v>300</v>
       </c>
       <c r="G4" s="14">
         <v>300</v>
       </c>
-      <c r="H4" s="61"/>
+      <c r="H4" s="14">
+        <v>300</v>
+      </c>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="82" t="s">
+      <c r="K4" s="61"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-    </row>
-    <row r="9" spans="1:10" ht="123" customHeight="1">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+    </row>
+    <row r="9" spans="1:11" ht="123" customHeight="1">
       <c r="A9" s="79" t="s">
         <v>199</v>
       </c>
@@ -2169,16 +2185,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="72" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="1"/>
@@ -2247,47 +2263,47 @@
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="85" customFormat="1">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:14" s="75" customFormat="1">
+      <c r="A1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="87" t="s">
+      <c r="L1" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="81" t="s">
+      <c r="M1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="72" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2456,24 +2472,24 @@
       <c r="N6"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" spans="1:14" ht="137.25" customHeight="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2503,17 +2519,17 @@
     <col min="2" max="25" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="89" customFormat="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:4" s="78" customFormat="1">
+      <c r="A1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="73" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2563,13 +2579,13 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="73" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2607,36 +2623,36 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
     </row>
     <row r="18" spans="1:4" ht="126" customHeight="1">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="81" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" spans="1:4" ht="76.5" customHeight="1">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2675,10 +2691,10 @@
       <c r="B1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="71"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="10"/>
       <c r="F1" s="19"/>
       <c r="G1" s="36"/>
@@ -2699,11 +2715,11 @@
       <c r="B3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="25" t="s">
         <v>41</v>
       </c>
@@ -4770,7 +4786,7 @@
   <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4791,10 +4807,10 @@
       <c r="B1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="76"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="40"/>
       <c r="F1" s="35" t="s">
         <v>87</v>
@@ -4824,10 +4840,10 @@
       <c r="C3" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="47" t="s">
         <v>41</v>
       </c>
@@ -5381,12 +5397,14 @@
         <v>192</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="H30" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="37"/>
+      <c r="I30" s="62" t="s">
+        <v>206</v>
+      </c>
       <c r="M30" s="49"/>
     </row>
     <row r="31" spans="2:13">

--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F45D0C1-4EA0-4436-AA15-2C66B875F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA5A1D-5889-408F-8A65-CB9FDD8837DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="209">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,6 +846,10 @@
   </si>
   <si>
     <t>치명타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1267,11 +1271,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1499,6 +1514,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,6 +1740,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>962950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>67166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C87EAB2-A78A-64DF-9E7B-879885A98F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="1466850"/>
+          <a:ext cx="6630325" cy="3515216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B9766E3-9E84-8C98-0B35-B2B518EEC81C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3733800"/>
+          <a:ext cx="8858250" cy="3206606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2009,7 +2140,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2168,6 +2299,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2245,25 +2377,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.75" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.875" style="1" customWidth="1"/>
-    <col min="15" max="37" width="25.625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="3" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="19.75" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="38" width="25.625" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="75" customFormat="1">
+    <row r="1" spans="1:15" s="75" customFormat="1">
       <c r="A1" s="76" t="s">
         <v>8</v>
       </c>
@@ -2280,34 +2412,37 @@
         <v>150</v>
       </c>
       <c r="F1" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="H1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="I1" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="K1" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="L1" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="M1" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="N1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="72" t="s">
+      <c r="O1" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="59" t="s">
         <v>74</v>
       </c>
@@ -2324,36 +2459,39 @@
         <v>3</v>
       </c>
       <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
         <v>5</v>
       </c>
-      <c r="G2" s="13">
+      <c r="H2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="13">
+      <c r="I2" s="13">
         <v>10</v>
       </c>
-      <c r="I2" s="57">
+      <c r="J2" s="57">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>1000</v>
       </c>
-      <c r="K2" s="57">
+      <c r="L2" s="57">
         <v>1000</v>
       </c>
-      <c r="L2" s="57">
+      <c r="M2" s="57">
         <v>2000</v>
       </c>
-      <c r="M2" s="58">
-        <f>SUM(C2,F2:G2)/2</f>
+      <c r="N2" s="58">
+        <f>SUM(C2,G2:H2)/2</f>
         <v>57.5</v>
       </c>
-      <c r="N2" s="58">
-        <f>SUM(D2:G2)/2</f>
+      <c r="O2" s="58">
+        <f>SUM(D2:H2)/2</f>
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="59" t="s">
         <v>75</v>
       </c>
@@ -2370,36 +2508,39 @@
         <v>40</v>
       </c>
       <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
         <v>60</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H3" s="13">
         <v>2000</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <v>300</v>
       </c>
-      <c r="I3" s="57">
+      <c r="J3" s="57">
         <v>5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>7000</v>
       </c>
-      <c r="K3" s="57">
+      <c r="L3" s="57">
         <v>5000</v>
       </c>
-      <c r="L3" s="57">
+      <c r="M3" s="57">
         <v>7000</v>
       </c>
-      <c r="M3" s="58">
-        <f>SUM(C3,F3:G3)/2</f>
+      <c r="N3" s="58">
+        <f>SUM(C3,G3:H3)/2</f>
         <v>1055</v>
       </c>
-      <c r="N3" s="58">
-        <f>SUM(D3:G3)/2</f>
+      <c r="O3" s="58">
+        <f>SUM(D3:H3)/2</f>
         <v>1090</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="59" t="s">
         <v>76</v>
       </c>
@@ -2416,30 +2557,33 @@
         <v>150</v>
       </c>
       <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
         <v>250</v>
       </c>
-      <c r="G4" s="13">
+      <c r="H4" s="13">
         <v>10000</v>
       </c>
-      <c r="H4" s="13">
+      <c r="I4" s="13">
         <v>1200</v>
       </c>
-      <c r="I4" s="57">
+      <c r="J4" s="57">
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>25000</v>
       </c>
-      <c r="K4" s="57">
+      <c r="L4" s="57">
         <v>30000</v>
       </c>
-      <c r="L4" s="57">
+      <c r="M4" s="57">
         <v>50000</v>
       </c>
-      <c r="M4" s="58"/>
       <c r="N4" s="58"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2454,8 +2598,9 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2470,38 +2615,42 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="80" t="s">
+      <c r="O6"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-    </row>
-    <row r="10" spans="1:14" ht="137.25" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+    </row>
+    <row r="10" spans="1:15" ht="137.25" customHeight="1">
+      <c r="A10" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N2" formulaRange="1"/>
+    <ignoredError sqref="O2" formulaRange="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4785,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4816,7 +4965,7 @@
         <v>87</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="66"/>
@@ -5187,7 +5336,7 @@
         <v>105</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="G19" s="65" t="s">
         <v>115</v>
@@ -5195,7 +5344,9 @@
       <c r="H19" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="62" t="s">
+        <v>208</v>
+      </c>
       <c r="M19" s="49"/>
     </row>
     <row r="20" spans="2:13">
@@ -5212,12 +5363,14 @@
         <v>62</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="62" t="s">
+        <v>208</v>
+      </c>
       <c r="M20" s="49"/>
     </row>
     <row r="21" spans="2:13">
@@ -5225,12 +5378,14 @@
         <v>64</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="H21" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="62" t="s">
+        <v>208</v>
+      </c>
       <c r="M21" s="49"/>
     </row>
     <row r="22" spans="2:13">
@@ -5238,12 +5393,14 @@
         <v>63</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="62" t="s">
+        <v>208</v>
+      </c>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="2:13">

--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AA5A1D-5889-408F-8A65-CB9FDD8837DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6950B4D-C57E-4020-87B1-7FE4180D24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="214">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,12 +120,6 @@
   </si>
   <si>
     <t>방어구</t>
-  </si>
-  <si>
-    <t>최소 방어력</t>
-  </si>
-  <si>
-    <t>최대 방어력</t>
   </si>
   <si>
     <t>가죽 옷</t>
@@ -599,14 +593,6 @@
   </si>
   <si>
     <t>최소 방어력, 최대 방어력 삭제 후 방어력 하나로 통일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 방어력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 방어력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -850,6 +836,45 @@
   </si>
   <si>
     <t>Version.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 저장, 불러오기 메뉴 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임모드에 추가 (현재 게임툴에는 있음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 기본 공격력이 잘못 설정되어있는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 직업의 최소, 최대 기본 공격력이 5씩 높게 설정되어있는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 정보 메뉴에서 최소, 최대 공격력 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 직업 최소, 최대 공격력 사양
+기사: 5, 10
+궁수: 10, 15
+마법사: 15, 20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1488,6 +1513,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1514,24 +1551,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1829,6 +1848,99 @@
         <a:xfrm>
           <a:off x="0" y="3733800"/>
           <a:ext cx="8858250" cy="3206606"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CAFC42-F8EA-CC5D-BFDC-324BDD22876B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="3562351"/>
+          <a:ext cx="8220075" cy="1773724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DBF590-2692-33E5-47F6-501001698ADE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="1562101"/>
+          <a:ext cx="8143875" cy="1847566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2137,22 +2249,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481DD1C-D151-45F4-BE8D-C6D2A2BCEF98}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="34" width="25.625" customWidth="1"/>
+    <col min="2" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="33" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="75" customFormat="1">
+    <row r="1" spans="1:10" s="75" customFormat="1">
       <c r="A1" s="73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>10</v>
@@ -2161,33 +2273,30 @@
         <v>11</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G1" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="B2" s="14">
         <v>5</v>
@@ -2202,27 +2311,24 @@
         <v>15</v>
       </c>
       <c r="F2" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G2" s="14">
-        <v>500</v>
-      </c>
-      <c r="H2" s="14">
         <v>100</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61">
+        <f>SUM(B2,F2:F2)/2</f>
+        <v>252.5</v>
+      </c>
       <c r="J2" s="61">
-        <f>SUM(B2,F2:G2)/2</f>
-        <v>262.5</v>
-      </c>
-      <c r="K2" s="61">
-        <f>SUM(C2:G2)/2</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <f>SUM(C2:F2)/2</f>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="14">
         <v>10</v>
@@ -2237,21 +2343,18 @@
         <v>10</v>
       </c>
       <c r="F3" s="14">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="G3" s="14">
-        <v>400</v>
-      </c>
-      <c r="H3" s="14">
         <v>200</v>
       </c>
+      <c r="H3" s="61"/>
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14">
         <v>15</v>
@@ -2266,28 +2369,25 @@
         <v>5</v>
       </c>
       <c r="F4" s="14">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G4" s="14">
         <v>300</v>
       </c>
-      <c r="H4" s="14">
-        <v>300</v>
-      </c>
+      <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="80" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
     </row>
-    <row r="9" spans="1:11" ht="123" customHeight="1">
+    <row r="9" spans="1:10" ht="123" customHeight="1">
       <c r="A9" s="79" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -2334,37 +2434,37 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C4" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D4" s="60"/>
     </row>
@@ -2377,25 +2477,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="10" width="14.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="19.75" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.875" style="1" customWidth="1"/>
-    <col min="16" max="38" width="25.625" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="1"/>
+    <col min="3" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.75" style="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="15" max="37" width="25.625" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="75" customFormat="1">
+    <row r="1" spans="1:14" s="75" customFormat="1">
       <c r="A1" s="76" t="s">
         <v>8</v>
       </c>
@@ -2409,45 +2509,42 @@
         <v>11</v>
       </c>
       <c r="E1" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="L1" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="C2" s="13">
         <v>10</v>
@@ -2456,47 +2553,44 @@
         <v>20</v>
       </c>
       <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
         <v>3</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
       <c r="G2" s="13">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H2" s="13">
-        <v>100</v>
-      </c>
-      <c r="I2" s="13">
         <v>10</v>
       </c>
-      <c r="J2" s="57">
+      <c r="I2" s="57">
         <v>1</v>
       </c>
-      <c r="K2" s="4">
+      <c r="J2" s="4">
         <v>1000</v>
       </c>
+      <c r="K2" s="57">
+        <v>1000</v>
+      </c>
       <c r="L2" s="57">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="57">
         <v>2000</v>
       </c>
+      <c r="M2" s="58">
+        <f>SUM(C2,G2:G2)/2</f>
+        <v>55</v>
+      </c>
       <c r="N2" s="58">
-        <f>SUM(C2,G2:H2)/2</f>
-        <v>57.5</v>
-      </c>
-      <c r="O2" s="58">
-        <f>SUM(D2:H2)/2</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <f>SUM(D2:G2)/2</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
@@ -2505,47 +2599,44 @@
         <v>80</v>
       </c>
       <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <v>40</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
       <c r="G3" s="13">
-        <v>60</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="13">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="13">
         <v>300</v>
       </c>
-      <c r="J3" s="57">
+      <c r="I3" s="57">
         <v>5</v>
       </c>
-      <c r="K3" s="4">
+      <c r="J3" s="4">
         <v>7000</v>
       </c>
+      <c r="K3" s="57">
+        <v>5000</v>
+      </c>
       <c r="L3" s="57">
-        <v>5000</v>
-      </c>
-      <c r="M3" s="57">
         <v>7000</v>
       </c>
+      <c r="M3" s="58">
+        <f>SUM(C3,G3:G3)/2</f>
+        <v>1025</v>
+      </c>
       <c r="N3" s="58">
-        <f>SUM(C3,G3:H3)/2</f>
-        <v>1055</v>
-      </c>
-      <c r="O3" s="58">
-        <f>SUM(D3:H3)/2</f>
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <f>SUM(D3:G3)/2</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C4" s="13">
         <v>150</v>
@@ -2554,36 +2645,33 @@
         <v>250</v>
       </c>
       <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>150</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
       <c r="G4" s="13">
-        <v>250</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="13">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="13">
         <v>1200</v>
       </c>
-      <c r="J4" s="57">
+      <c r="I4" s="57">
         <v>10</v>
       </c>
-      <c r="K4" s="4">
+      <c r="J4" s="4">
         <v>25000</v>
       </c>
+      <c r="K4" s="57">
+        <v>30000</v>
+      </c>
       <c r="L4" s="57">
-        <v>30000</v>
-      </c>
-      <c r="M4" s="57">
         <v>50000</v>
       </c>
+      <c r="M4" s="58"/>
       <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2598,9 +2686,8 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2615,40 +2702,37 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
-    </row>
-    <row r="10" spans="1:15" ht="137.25" customHeight="1">
-      <c r="A10" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="92"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" ht="137.25" customHeight="1">
+      <c r="A10" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="O2" formulaRange="1"/>
+    <ignoredError sqref="N2" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2659,7 +2743,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2732,76 +2816,64 @@
         <v>24</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="14">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="14">
         <v>20</v>
       </c>
-      <c r="C8" s="14">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="14">
         <v>70</v>
       </c>
-      <c r="C9" s="14">
-        <v>100</v>
-      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="80" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
     </row>
     <row r="18" spans="1:4" ht="126" customHeight="1">
-      <c r="A18" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="80" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
     </row>
     <row r="21" spans="1:4" ht="76.5" customHeight="1">
-      <c r="A21" s="81" t="s">
-        <v>205</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2812,6 +2884,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2838,12 +2911,12 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B1" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="82"/>
+        <v>69</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="86"/>
       <c r="E1" s="10"/>
       <c r="F1" s="19"/>
       <c r="G1" s="36"/>
@@ -2862,198 +2935,198 @@
     <row r="3" spans="1:13" s="21" customFormat="1">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13">
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13">
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13">
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13">
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13">
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13">
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13">
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13">
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13">
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="2:13">
       <c r="D17" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="2:13">
       <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M21" s="22"/>
     </row>
@@ -3062,13 +3135,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M22" s="23"/>
     </row>
@@ -3077,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M23" s="23"/>
     </row>
@@ -3086,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M24" s="23"/>
     </row>
@@ -3095,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M25" s="23"/>
     </row>
@@ -3104,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M26" s="23"/>
     </row>
@@ -3113,25 +3186,25 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M28" s="23"/>
     </row>
@@ -3140,7 +3213,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M29" s="23"/>
     </row>
@@ -3149,460 +3222,460 @@
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M30" s="23"/>
     </row>
     <row r="31" spans="2:13">
       <c r="F31" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="2:13">
       <c r="F32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M32" s="23"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3652,7 +3725,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3670,85 +3743,97 @@
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1">
       <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="82.5">
       <c r="A2" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F2" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="33">
       <c r="A3" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H3" s="69"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="33"/>
+    <row r="4" spans="1:8" ht="82.5">
+      <c r="A4" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>213</v>
+      </c>
       <c r="G4" s="37" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="H4" s="69"/>
     </row>
@@ -3760,7 +3845,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="33"/>
       <c r="G5" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="69"/>
     </row>
@@ -3772,7 +3857,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="33"/>
       <c r="G6" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="69"/>
     </row>
@@ -3784,7 +3869,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="33"/>
       <c r="G7" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H7" s="69"/>
     </row>
@@ -3796,7 +3881,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="33"/>
       <c r="G8" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="69"/>
     </row>
@@ -3808,7 +3893,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="33"/>
       <c r="G9" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="69"/>
     </row>
@@ -3820,7 +3905,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="33"/>
       <c r="G10" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="69"/>
     </row>
@@ -3832,7 +3917,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="69"/>
     </row>
@@ -3844,7 +3929,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="33"/>
       <c r="G12" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" s="69"/>
     </row>
@@ -3856,7 +3941,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="33"/>
       <c r="G13" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="69"/>
     </row>
@@ -3868,7 +3953,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="33"/>
       <c r="G14" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="69"/>
     </row>
@@ -3880,7 +3965,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="33"/>
       <c r="G15" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="69"/>
     </row>
@@ -3892,7 +3977,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="33"/>
       <c r="G16" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="69"/>
     </row>
@@ -3904,7 +3989,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="33"/>
       <c r="G17" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="69"/>
     </row>
@@ -3916,7 +4001,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="33"/>
       <c r="G18" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" s="69"/>
     </row>
@@ -3928,7 +4013,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="33"/>
       <c r="G19" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" s="69"/>
     </row>
@@ -3940,7 +4025,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="33"/>
       <c r="G20" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" s="69"/>
     </row>
@@ -3952,7 +4037,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="33"/>
       <c r="G21" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" s="69"/>
     </row>
@@ -3964,7 +4049,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="33"/>
       <c r="G22" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" s="69"/>
     </row>
@@ -3976,7 +4061,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="33"/>
       <c r="G23" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" s="69"/>
     </row>
@@ -3988,7 +4073,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="33"/>
       <c r="G24" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24" s="69"/>
     </row>
@@ -4000,7 +4085,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="33"/>
       <c r="G25" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="69"/>
     </row>
@@ -4012,7 +4097,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="33"/>
       <c r="G26" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H26" s="69"/>
     </row>
@@ -4024,7 +4109,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="33"/>
       <c r="G27" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H27" s="69"/>
     </row>
@@ -4036,7 +4121,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="33"/>
       <c r="G28" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" s="69"/>
     </row>
@@ -4048,7 +4133,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="33"/>
       <c r="G29" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H29" s="69"/>
     </row>
@@ -4060,7 +4145,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="33"/>
       <c r="G30" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H30" s="69"/>
     </row>
@@ -4072,7 +4157,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="33"/>
       <c r="G31" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="69"/>
     </row>
@@ -4084,7 +4169,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="33"/>
       <c r="G32" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H32" s="69"/>
     </row>
@@ -4096,7 +4181,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="33"/>
       <c r="G33" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H33" s="69"/>
     </row>
@@ -4108,7 +4193,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="33"/>
       <c r="G34" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H34" s="69"/>
     </row>
@@ -4120,7 +4205,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="33"/>
       <c r="G35" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="69"/>
     </row>
@@ -4132,7 +4217,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="33"/>
       <c r="G36" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H36" s="69"/>
     </row>
@@ -4144,7 +4229,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="33"/>
       <c r="G37" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37" s="69"/>
     </row>
@@ -4156,7 +4241,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="33"/>
       <c r="G38" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H38" s="69"/>
     </row>
@@ -4168,7 +4253,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="33"/>
       <c r="G39" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H39" s="69"/>
     </row>
@@ -4180,7 +4265,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="33"/>
       <c r="G40" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H40" s="69"/>
     </row>
@@ -4192,7 +4277,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="33"/>
       <c r="G41" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H41" s="69"/>
     </row>
@@ -4204,7 +4289,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="33"/>
       <c r="G42" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H42" s="69"/>
     </row>
@@ -4216,7 +4301,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="33"/>
       <c r="G43" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H43" s="69"/>
     </row>
@@ -4228,7 +4313,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="33"/>
       <c r="G44" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H44" s="69"/>
     </row>
@@ -4240,7 +4325,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="33"/>
       <c r="G45" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H45" s="69"/>
     </row>
@@ -4252,7 +4337,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="33"/>
       <c r="G46" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H46" s="69"/>
     </row>
@@ -4264,7 +4349,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="33"/>
       <c r="G47" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H47" s="69"/>
     </row>
@@ -4276,7 +4361,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="33"/>
       <c r="G48" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H48" s="69"/>
     </row>
@@ -4288,7 +4373,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="33"/>
       <c r="G49" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H49" s="69"/>
     </row>
@@ -4300,7 +4385,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="33"/>
       <c r="G50" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H50" s="69"/>
     </row>
@@ -4312,7 +4397,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="33"/>
       <c r="G51" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H51" s="69"/>
     </row>
@@ -4324,7 +4409,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="33"/>
       <c r="G52" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H52" s="69"/>
     </row>
@@ -4336,7 +4421,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="33"/>
       <c r="G53" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H53" s="69"/>
     </row>
@@ -4348,7 +4433,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="33"/>
       <c r="G54" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H54" s="69"/>
     </row>
@@ -4360,7 +4445,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="33"/>
       <c r="G55" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H55" s="69"/>
     </row>
@@ -4372,7 +4457,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="33"/>
       <c r="G56" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H56" s="69"/>
     </row>
@@ -4384,7 +4469,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="33"/>
       <c r="G57" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H57" s="69"/>
     </row>
@@ -4396,7 +4481,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="33"/>
       <c r="G58" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H58" s="69"/>
     </row>
@@ -4408,7 +4493,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="33"/>
       <c r="G59" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H59" s="69"/>
     </row>
@@ -4420,7 +4505,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="33"/>
       <c r="G60" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H60" s="69"/>
     </row>
@@ -4432,7 +4517,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="33"/>
       <c r="G61" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H61" s="69"/>
     </row>
@@ -4444,7 +4529,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="33"/>
       <c r="G62" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H62" s="69"/>
     </row>
@@ -4456,7 +4541,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="33"/>
       <c r="G63" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H63" s="69"/>
     </row>
@@ -4468,7 +4553,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="33"/>
       <c r="G64" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H64" s="69"/>
     </row>
@@ -4480,7 +4565,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="33"/>
       <c r="G65" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H65" s="69"/>
     </row>
@@ -4492,7 +4577,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="33"/>
       <c r="G66" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H66" s="69"/>
     </row>
@@ -4504,7 +4589,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="33"/>
       <c r="G67" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H67" s="69"/>
     </row>
@@ -4516,7 +4601,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="33"/>
       <c r="G68" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H68" s="69"/>
     </row>
@@ -4528,7 +4613,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="33"/>
       <c r="G69" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H69" s="69"/>
     </row>
@@ -4540,7 +4625,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="33"/>
       <c r="G70" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H70" s="69"/>
     </row>
@@ -4552,7 +4637,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="33"/>
       <c r="G71" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H71" s="69"/>
     </row>
@@ -4564,7 +4649,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="33"/>
       <c r="G72" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H72" s="69"/>
     </row>
@@ -4576,7 +4661,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="33"/>
       <c r="G73" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H73" s="69"/>
     </row>
@@ -4588,7 +4673,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="33"/>
       <c r="G74" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H74" s="69"/>
     </row>
@@ -4600,7 +4685,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="33"/>
       <c r="G75" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H75" s="69"/>
     </row>
@@ -4612,7 +4697,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="33"/>
       <c r="G76" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H76" s="69"/>
     </row>
@@ -4624,7 +4709,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="33"/>
       <c r="G77" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H77" s="69"/>
     </row>
@@ -4636,7 +4721,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="33"/>
       <c r="G78" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H78" s="69"/>
     </row>
@@ -4648,7 +4733,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="33"/>
       <c r="G79" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H79" s="69"/>
     </row>
@@ -4660,7 +4745,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="33"/>
       <c r="G80" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H80" s="69"/>
     </row>
@@ -4672,7 +4757,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="33"/>
       <c r="G81" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H81" s="69"/>
     </row>
@@ -4684,7 +4769,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="33"/>
       <c r="G82" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H82" s="69"/>
     </row>
@@ -4696,7 +4781,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="33"/>
       <c r="G83" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H83" s="69"/>
     </row>
@@ -4708,7 +4793,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="33"/>
       <c r="G84" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H84" s="69"/>
     </row>
@@ -4720,7 +4805,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="33"/>
       <c r="G85" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H85" s="69"/>
     </row>
@@ -4732,7 +4817,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="33"/>
       <c r="G86" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H86" s="69"/>
     </row>
@@ -4744,7 +4829,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="33"/>
       <c r="G87" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H87" s="69"/>
     </row>
@@ -4756,7 +4841,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="33"/>
       <c r="G88" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H88" s="69"/>
     </row>
@@ -4768,7 +4853,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="33"/>
       <c r="G89" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H89" s="69"/>
     </row>
@@ -4780,7 +4865,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="33"/>
       <c r="G90" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H90" s="69"/>
     </row>
@@ -4792,7 +4877,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="33"/>
       <c r="G91" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H91" s="69"/>
     </row>
@@ -4804,7 +4889,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="33"/>
       <c r="G92" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H92" s="69"/>
     </row>
@@ -4816,7 +4901,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="33"/>
       <c r="G93" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H93" s="69"/>
     </row>
@@ -4828,7 +4913,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="33"/>
       <c r="G94" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H94" s="69"/>
     </row>
@@ -4840,7 +4925,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="33"/>
       <c r="G95" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H95" s="69"/>
     </row>
@@ -4852,7 +4937,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="33"/>
       <c r="G96" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H96" s="69"/>
     </row>
@@ -4864,7 +4949,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="33"/>
       <c r="G97" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H97" s="69"/>
     </row>
@@ -4876,7 +4961,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="33"/>
       <c r="G98" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H98" s="69"/>
     </row>
@@ -4888,7 +4973,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="33"/>
       <c r="G99" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H99" s="69"/>
     </row>
@@ -4935,7 +5020,7 @@
   <dimension ref="A1:M127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4954,18 +5039,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B1" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="87"/>
+        <v>69</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="91"/>
       <c r="E1" s="40"/>
       <c r="F1" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="66"/>
@@ -4984,623 +5069,623 @@
     <row r="3" spans="1:13" s="48" customFormat="1">
       <c r="A3" s="46"/>
       <c r="B3" s="47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="E3" s="89"/>
+        <v>138</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="93"/>
       <c r="F3" s="47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" s="62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="62" t="s">
         <v>177</v>
-      </c>
-      <c r="G6" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>181</v>
       </c>
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I10" s="37"/>
       <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="37"/>
       <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" s="37"/>
       <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I13" s="37"/>
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="33">
       <c r="B14" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I14" s="37"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="33">
       <c r="B15" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15" s="62" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="33">
       <c r="B16" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16" s="62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M16" s="49"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="37"/>
       <c r="M17" s="49"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I18" s="37"/>
       <c r="M18" s="49"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M19" s="49"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M20" s="49"/>
     </row>
     <row r="21" spans="2:13">
       <c r="E21" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M21" s="49"/>
     </row>
     <row r="22" spans="2:13">
       <c r="E22" s="50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M23" s="49"/>
     </row>
     <row r="24" spans="2:13">
       <c r="E24" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M24" s="49"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="37"/>
       <c r="M25" s="49"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I26" s="37"/>
       <c r="M26" s="49"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I27" s="37"/>
       <c r="M27" s="49"/>
     </row>
     <row r="28" spans="2:13">
       <c r="C28" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I28" s="37"/>
       <c r="M28" s="49"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" s="37"/>
       <c r="M29" s="49"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I30" s="62" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M30" s="49"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D31" s="50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H31" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I31" s="37"/>
       <c r="M31" s="51"/>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I32" s="37"/>
       <c r="M32" s="51"/>
@@ -5610,747 +5695,764 @@
         <v>17</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="65" t="s">
-        <v>127</v>
-      </c>
       <c r="H33" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I33" s="37"/>
       <c r="M33" s="51"/>
     </row>
     <row r="34" spans="2:13">
       <c r="C34" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I34" s="37"/>
       <c r="M34" s="51"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I35" s="37"/>
       <c r="M35" s="49"/>
     </row>
     <row r="36" spans="2:13" ht="33">
       <c r="B36" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G36" s="65" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I36" s="62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M36" s="51"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I37" s="37"/>
       <c r="M37" s="51"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="50" t="s">
+      <c r="F38" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>148</v>
-      </c>
       <c r="H38" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I38" s="37"/>
       <c r="M38" s="51"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="I39" s="62" t="s">
+        <v>205</v>
+      </c>
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" s="50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I40" s="37"/>
       <c r="M40" s="51"/>
     </row>
     <row r="41" spans="2:13">
       <c r="E41" s="50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I41" s="37"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G42" s="65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I42" s="37"/>
     </row>
     <row r="43" spans="2:13">
       <c r="E43" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="65" t="s">
-        <v>166</v>
-      </c>
       <c r="H43" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I44" s="37"/>
     </row>
     <row r="45" spans="2:13" ht="33">
       <c r="B45" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G45" s="65" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I45" s="37"/>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G46" s="65" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I46" s="62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="33">
       <c r="B47" s="37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G47" s="65" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I47" s="37"/>
     </row>
     <row r="48" spans="2:13" ht="33">
       <c r="B48" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G49" s="65" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H49" s="62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I49" s="62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G50" s="65" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="2:9">
+      <c r="B51" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>206</v>
+      </c>
       <c r="F51" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="G51" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" s="62" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="2:9">
       <c r="F52" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:9">
       <c r="F53" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:9">
       <c r="F54" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="F55" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:9">
       <c r="F56" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:9">
       <c r="F57" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="F58" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="F59" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="2:9">
       <c r="F60" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6435,95 +6537,95 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6950B4D-C57E-4020-87B1-7FE4180D24DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF2B9D-6283-4CCC-97C6-08F66E4EE43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="236">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>직업</t>
-  </si>
-  <si>
-    <t>마나</t>
   </si>
   <si>
     <t>속성</t>
@@ -593,10 +590,6 @@
   </si>
   <si>
     <t>최소 방어력, 최대 방어력 삭제 후 방어력 하나로 통일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -875,6 +868,103 @@
 기사: 5, 10
 궁수: 10, 15
 마법사: 15, 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 소모 마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 아이템 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 아이템 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복 아이템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 아이템 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계 체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계 마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계 체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계 마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시 출력되는 텍스트 가독성 좋게 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>몬스터 마나 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 삭제 메뉴에서 상단 출력문이 아이템 삭제로 출력되는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>============ 아이템 삭제 ===========
+로 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>============ 몬스터 삭제 ===========
+로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체적인 밸런스 조정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,6 +1641,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1865,13 +1964,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>173525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2249,20 +2348,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481DD1C-D151-45F4-BE8D-C6D2A2BCEF98}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="33" width="25.625" customWidth="1"/>
+    <col min="2" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="34" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="75" customFormat="1">
+    <row r="1" spans="1:11" s="75" customFormat="1">
       <c r="A1" s="73" t="s">
         <v>28</v>
       </c>
@@ -2273,30 +2372,33 @@
         <v>11</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F1" s="73" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="J1" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="B2" s="14">
         <v>5</v>
@@ -2314,21 +2416,24 @@
         <v>500</v>
       </c>
       <c r="G2" s="14">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14">
         <v>100</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61">
+      <c r="I2" s="61"/>
+      <c r="J2" s="61">
         <f>SUM(B2,F2:F2)/2</f>
         <v>252.5</v>
       </c>
-      <c r="J2" s="61">
+      <c r="K2" s="61">
         <f>SUM(C2:F2)/2</f>
         <v>265</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="14">
         <v>10</v>
@@ -2346,15 +2451,18 @@
         <v>400</v>
       </c>
       <c r="G3" s="14">
+        <v>10</v>
+      </c>
+      <c r="H3" s="14">
         <v>200</v>
       </c>
-      <c r="H3" s="61"/>
       <c r="I3" s="61"/>
       <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14">
         <v>15</v>
@@ -2372,22 +2480,25 @@
         <v>300</v>
       </c>
       <c r="G4" s="14">
+        <v>15</v>
+      </c>
+      <c r="H4" s="14">
         <v>300</v>
       </c>
-      <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="61"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K4" s="61"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="80"/>
     </row>
-    <row r="9" spans="1:10" ht="123" customHeight="1">
+    <row r="9" spans="1:11" ht="123" customHeight="1">
       <c r="A9" s="79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="79"/>
       <c r="C9" s="79"/>
@@ -2434,37 +2545,37 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D3" s="60"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D4" s="60"/>
     </row>
@@ -2477,25 +2588,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="14.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="19.75" style="1" customWidth="1"/>
-    <col min="13" max="14" width="14.875" style="1" customWidth="1"/>
-    <col min="15" max="37" width="25.625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="3" max="7" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="10" width="14.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="19.75" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="38" width="25.625" style="1" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="75" customFormat="1">
+    <row r="1" spans="1:15" s="75" customFormat="1">
       <c r="A1" s="76" t="s">
         <v>8</v>
       </c>
@@ -2509,42 +2622,45 @@
         <v>11</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>170</v>
-      </c>
       <c r="L1" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="72" t="s">
+      <c r="O1" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="13">
         <v>10</v>
@@ -2561,36 +2677,39 @@
       <c r="G2" s="13">
         <v>100</v>
       </c>
-      <c r="H2" s="13">
-        <v>10</v>
-      </c>
-      <c r="I2" s="57">
+      <c r="H2" s="94">
+        <v>0</v>
+      </c>
+      <c r="I2" s="94">
+        <v>0</v>
+      </c>
+      <c r="J2" s="57">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>1000</v>
       </c>
-      <c r="K2" s="57">
+      <c r="L2" s="57">
         <v>1000</v>
       </c>
-      <c r="L2" s="57">
+      <c r="M2" s="57">
         <v>2000</v>
       </c>
-      <c r="M2" s="58">
+      <c r="N2" s="58">
         <f>SUM(C2,G2:G2)/2</f>
         <v>55</v>
       </c>
-      <c r="N2" s="58">
+      <c r="O2" s="58">
         <f>SUM(D2:G2)/2</f>
         <v>61.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="13">
         <v>50</v>
@@ -2607,36 +2726,39 @@
       <c r="G3" s="13">
         <v>2000</v>
       </c>
-      <c r="H3" s="13">
-        <v>300</v>
-      </c>
-      <c r="I3" s="57">
+      <c r="H3" s="94">
+        <v>0</v>
+      </c>
+      <c r="I3" s="94">
+        <v>0</v>
+      </c>
+      <c r="J3" s="57">
         <v>5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>7000</v>
       </c>
-      <c r="K3" s="57">
+      <c r="L3" s="57">
         <v>5000</v>
       </c>
-      <c r="L3" s="57">
+      <c r="M3" s="57">
         <v>7000</v>
       </c>
-      <c r="M3" s="58">
+      <c r="N3" s="58">
         <f>SUM(C3,G3:G3)/2</f>
         <v>1025</v>
       </c>
-      <c r="N3" s="58">
+      <c r="O3" s="58">
         <f>SUM(D3:G3)/2</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="13">
         <v>150</v>
@@ -2653,25 +2775,28 @@
       <c r="G4" s="13">
         <v>10000</v>
       </c>
-      <c r="H4" s="13">
-        <v>1200</v>
-      </c>
-      <c r="I4" s="57">
+      <c r="H4" s="94">
+        <v>0</v>
+      </c>
+      <c r="I4" s="94">
+        <v>0</v>
+      </c>
+      <c r="J4" s="57">
         <v>10</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>25000</v>
       </c>
-      <c r="K4" s="57">
+      <c r="L4" s="57">
         <v>30000</v>
       </c>
-      <c r="L4" s="57">
+      <c r="M4" s="57">
         <v>50000</v>
       </c>
-      <c r="M4" s="58"/>
       <c r="N4" s="58"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="58"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2679,15 +2804,15 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2695,17 +2820,17 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O6"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="82"/>
       <c r="C9" s="82"/>
@@ -2713,9 +2838,9 @@
       <c r="E9" s="82"/>
       <c r="F9" s="82"/>
     </row>
-    <row r="10" spans="1:14" ht="137.25" customHeight="1">
+    <row r="10" spans="1:15" ht="137.25" customHeight="1">
       <c r="A10" s="83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -2732,7 +2857,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N2" formulaRange="1"/>
+    <ignoredError sqref="O2" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -2740,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D22D406-0FE4-425E-ADEF-786991B5079A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2816,7 +2941,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2843,44 +2968,88 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-    </row>
-    <row r="18" spans="1:4" ht="126" customHeight="1">
-      <c r="A18" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
+      <c r="A17" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="3"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="80" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B20" s="80"/>
       <c r="C20" s="80"/>
       <c r="D20" s="80"/>
     </row>
-    <row r="21" spans="1:4" ht="76.5" customHeight="1">
+    <row r="21" spans="1:4" ht="126" customHeight="1">
       <c r="A21" s="85" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+    </row>
+    <row r="24" spans="1:4" ht="76.5" customHeight="1">
+      <c r="A24" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2911,10 +3080,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="86" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="86"/>
       <c r="E1" s="10"/>
@@ -2935,198 +3104,198 @@
     <row r="3" spans="1:13" s="21" customFormat="1">
       <c r="A3" s="26"/>
       <c r="B3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="88"/>
       <c r="E3" s="89"/>
       <c r="F3" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13">
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13">
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13">
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13">
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13">
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13">
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13">
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13">
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13">
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13">
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16" s="22"/>
     </row>
     <row r="17" spans="2:13">
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M20" s="22"/>
     </row>
     <row r="21" spans="2:13">
       <c r="F21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M21" s="22"/>
     </row>
@@ -3135,13 +3304,13 @@
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M22" s="23"/>
     </row>
@@ -3150,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M23" s="23"/>
     </row>
@@ -3159,7 +3328,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="23"/>
     </row>
@@ -3168,7 +3337,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M25" s="23"/>
     </row>
@@ -3177,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="23"/>
     </row>
@@ -3186,25 +3355,25 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M27" s="22"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M28" s="23"/>
     </row>
@@ -3213,7 +3382,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29" s="23"/>
     </row>
@@ -3222,460 +3391,460 @@
         <v>7</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M30" s="23"/>
     </row>
     <row r="31" spans="2:13">
       <c r="F31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="2:13">
       <c r="F32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M32" s="23"/>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3894,7 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -3743,109 +3912,119 @@
   <sheetData>
     <row r="1" spans="1:8" s="31" customFormat="1">
       <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>37</v>
-      </c>
       <c r="F1" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>88</v>
-      </c>
       <c r="H1" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="82.5">
       <c r="A2" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>81</v>
-      </c>
       <c r="G2" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="33">
       <c r="A3" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="82.5">
       <c r="A4" s="62" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="F4" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>213</v>
-      </c>
       <c r="G4" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="69"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:8" ht="49.5">
+      <c r="A5" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>233</v>
+      </c>
       <c r="E5" s="16"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="96" t="s">
+        <v>234</v>
+      </c>
       <c r="G5" s="37" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="H5" s="69"/>
     </row>
@@ -3857,7 +4036,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="33"/>
       <c r="G6" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="69"/>
     </row>
@@ -3869,7 +4048,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="33"/>
       <c r="G7" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="69"/>
     </row>
@@ -3881,7 +4060,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="33"/>
       <c r="G8" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="69"/>
     </row>
@@ -3893,7 +4072,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="33"/>
       <c r="G9" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="69"/>
     </row>
@@ -3905,7 +4084,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="33"/>
       <c r="G10" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="69"/>
     </row>
@@ -3917,7 +4096,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="33"/>
       <c r="G11" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="69"/>
     </row>
@@ -3929,7 +4108,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="33"/>
       <c r="G12" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="69"/>
     </row>
@@ -3941,7 +4120,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="33"/>
       <c r="G13" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="69"/>
     </row>
@@ -3953,7 +4132,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="33"/>
       <c r="G14" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="69"/>
     </row>
@@ -3965,7 +4144,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="33"/>
       <c r="G15" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="69"/>
     </row>
@@ -3977,7 +4156,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="33"/>
       <c r="G16" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="69"/>
     </row>
@@ -3989,7 +4168,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="33"/>
       <c r="G17" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="69"/>
     </row>
@@ -4001,7 +4180,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="33"/>
       <c r="G18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="69"/>
     </row>
@@ -4013,7 +4192,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="33"/>
       <c r="G19" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="69"/>
     </row>
@@ -4025,7 +4204,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="33"/>
       <c r="G20" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="69"/>
     </row>
@@ -4037,7 +4216,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="33"/>
       <c r="G21" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="69"/>
     </row>
@@ -4049,7 +4228,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="33"/>
       <c r="G22" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" s="69"/>
     </row>
@@ -4061,7 +4240,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="33"/>
       <c r="G23" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="69"/>
     </row>
@@ -4073,7 +4252,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="33"/>
       <c r="G24" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="69"/>
     </row>
@@ -4085,7 +4264,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="33"/>
       <c r="G25" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" s="69"/>
     </row>
@@ -4097,7 +4276,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="33"/>
       <c r="G26" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="69"/>
     </row>
@@ -4109,7 +4288,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="33"/>
       <c r="G27" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="69"/>
     </row>
@@ -4121,7 +4300,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="33"/>
       <c r="G28" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="69"/>
     </row>
@@ -4133,7 +4312,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="33"/>
       <c r="G29" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H29" s="69"/>
     </row>
@@ -4145,7 +4324,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="33"/>
       <c r="G30" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H30" s="69"/>
     </row>
@@ -4157,7 +4336,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="33"/>
       <c r="G31" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="69"/>
     </row>
@@ -4169,7 +4348,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="33"/>
       <c r="G32" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32" s="69"/>
     </row>
@@ -4181,7 +4360,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="33"/>
       <c r="G33" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="69"/>
     </row>
@@ -4193,7 +4372,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="33"/>
       <c r="G34" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34" s="69"/>
     </row>
@@ -4205,7 +4384,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="33"/>
       <c r="G35" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" s="69"/>
     </row>
@@ -4217,7 +4396,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="33"/>
       <c r="G36" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" s="69"/>
     </row>
@@ -4229,7 +4408,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="33"/>
       <c r="G37" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37" s="69"/>
     </row>
@@ -4241,7 +4420,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="33"/>
       <c r="G38" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H38" s="69"/>
     </row>
@@ -4253,7 +4432,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="33"/>
       <c r="G39" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H39" s="69"/>
     </row>
@@ -4265,7 +4444,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="33"/>
       <c r="G40" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" s="69"/>
     </row>
@@ -4277,7 +4456,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="33"/>
       <c r="G41" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H41" s="69"/>
     </row>
@@ -4289,7 +4468,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="33"/>
       <c r="G42" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="69"/>
     </row>
@@ -4301,7 +4480,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="33"/>
       <c r="G43" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43" s="69"/>
     </row>
@@ -4313,7 +4492,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="33"/>
       <c r="G44" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H44" s="69"/>
     </row>
@@ -4325,7 +4504,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="33"/>
       <c r="G45" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45" s="69"/>
     </row>
@@ -4337,7 +4516,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="33"/>
       <c r="G46" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H46" s="69"/>
     </row>
@@ -4349,7 +4528,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="33"/>
       <c r="G47" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H47" s="69"/>
     </row>
@@ -4361,7 +4540,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="33"/>
       <c r="G48" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H48" s="69"/>
     </row>
@@ -4373,7 +4552,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="33"/>
       <c r="G49" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H49" s="69"/>
     </row>
@@ -4385,7 +4564,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="33"/>
       <c r="G50" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50" s="69"/>
     </row>
@@ -4397,7 +4576,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="33"/>
       <c r="G51" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51" s="69"/>
     </row>
@@ -4409,7 +4588,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="33"/>
       <c r="G52" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" s="69"/>
     </row>
@@ -4421,7 +4600,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="33"/>
       <c r="G53" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H53" s="69"/>
     </row>
@@ -4433,7 +4612,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="33"/>
       <c r="G54" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" s="69"/>
     </row>
@@ -4445,7 +4624,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="33"/>
       <c r="G55" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" s="69"/>
     </row>
@@ -4457,7 +4636,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="33"/>
       <c r="G56" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H56" s="69"/>
     </row>
@@ -4469,7 +4648,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="33"/>
       <c r="G57" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H57" s="69"/>
     </row>
@@ -4481,7 +4660,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="33"/>
       <c r="G58" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H58" s="69"/>
     </row>
@@ -4493,7 +4672,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="33"/>
       <c r="G59" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H59" s="69"/>
     </row>
@@ -4505,7 +4684,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="33"/>
       <c r="G60" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H60" s="69"/>
     </row>
@@ -4517,7 +4696,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="33"/>
       <c r="G61" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H61" s="69"/>
     </row>
@@ -4529,7 +4708,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="33"/>
       <c r="G62" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62" s="69"/>
     </row>
@@ -4541,7 +4720,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="33"/>
       <c r="G63" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H63" s="69"/>
     </row>
@@ -4553,7 +4732,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="33"/>
       <c r="G64" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H64" s="69"/>
     </row>
@@ -4565,7 +4744,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="33"/>
       <c r="G65" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H65" s="69"/>
     </row>
@@ -4577,7 +4756,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="33"/>
       <c r="G66" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66" s="69"/>
     </row>
@@ -4589,7 +4768,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="33"/>
       <c r="G67" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H67" s="69"/>
     </row>
@@ -4601,7 +4780,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="33"/>
       <c r="G68" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H68" s="69"/>
     </row>
@@ -4613,7 +4792,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="33"/>
       <c r="G69" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69" s="69"/>
     </row>
@@ -4625,7 +4804,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="33"/>
       <c r="G70" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H70" s="69"/>
     </row>
@@ -4637,7 +4816,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="33"/>
       <c r="G71" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H71" s="69"/>
     </row>
@@ -4649,7 +4828,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="33"/>
       <c r="G72" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H72" s="69"/>
     </row>
@@ -4661,7 +4840,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="33"/>
       <c r="G73" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H73" s="69"/>
     </row>
@@ -4673,7 +4852,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="33"/>
       <c r="G74" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H74" s="69"/>
     </row>
@@ -4685,7 +4864,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="33"/>
       <c r="G75" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H75" s="69"/>
     </row>
@@ -4697,7 +4876,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="33"/>
       <c r="G76" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H76" s="69"/>
     </row>
@@ -4709,7 +4888,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="33"/>
       <c r="G77" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H77" s="69"/>
     </row>
@@ -4721,7 +4900,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="33"/>
       <c r="G78" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H78" s="69"/>
     </row>
@@ -4733,7 +4912,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="33"/>
       <c r="G79" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H79" s="69"/>
     </row>
@@ -4745,7 +4924,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="33"/>
       <c r="G80" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H80" s="69"/>
     </row>
@@ -4757,7 +4936,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="33"/>
       <c r="G81" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H81" s="69"/>
     </row>
@@ -4769,7 +4948,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="33"/>
       <c r="G82" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H82" s="69"/>
     </row>
@@ -4781,7 +4960,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="33"/>
       <c r="G83" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H83" s="69"/>
     </row>
@@ -4793,7 +4972,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="33"/>
       <c r="G84" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H84" s="69"/>
     </row>
@@ -4805,7 +4984,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="33"/>
       <c r="G85" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H85" s="69"/>
     </row>
@@ -4817,7 +4996,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="33"/>
       <c r="G86" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H86" s="69"/>
     </row>
@@ -4829,7 +5008,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="33"/>
       <c r="G87" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H87" s="69"/>
     </row>
@@ -4841,7 +5020,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="33"/>
       <c r="G88" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H88" s="69"/>
     </row>
@@ -4853,7 +5032,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="33"/>
       <c r="G89" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H89" s="69"/>
     </row>
@@ -4865,7 +5044,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="33"/>
       <c r="G90" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H90" s="69"/>
     </row>
@@ -4877,7 +5056,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="33"/>
       <c r="G91" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H91" s="69"/>
     </row>
@@ -4889,7 +5068,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="33"/>
       <c r="G92" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H92" s="69"/>
     </row>
@@ -4901,7 +5080,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="33"/>
       <c r="G93" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H93" s="69"/>
     </row>
@@ -4913,7 +5092,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="33"/>
       <c r="G94" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H94" s="69"/>
     </row>
@@ -4925,7 +5104,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="33"/>
       <c r="G95" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H95" s="69"/>
     </row>
@@ -4937,7 +5116,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="33"/>
       <c r="G96" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H96" s="69"/>
     </row>
@@ -4949,7 +5128,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="33"/>
       <c r="G97" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97" s="69"/>
     </row>
@@ -4961,7 +5140,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="33"/>
       <c r="G98" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H98" s="69"/>
     </row>
@@ -4973,7 +5152,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="33"/>
       <c r="G99" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H99" s="69"/>
     </row>
@@ -5017,10 +5196,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -5039,18 +5218,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B1" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="91"/>
       <c r="E1" s="40"/>
       <c r="F1" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H1" s="67"/>
       <c r="I1" s="66"/>
@@ -5069,303 +5248,303 @@
     <row r="3" spans="1:13" s="48" customFormat="1">
       <c r="A3" s="46"/>
       <c r="B3" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="93"/>
       <c r="F3" s="47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M5" s="49"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M7" s="49"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M8" s="49"/>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="62" t="s">
         <v>172</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>174</v>
       </c>
       <c r="M9" s="49"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="37"/>
       <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="37"/>
       <c r="M11" s="49"/>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="37"/>
       <c r="M12" s="49"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="37"/>
       <c r="M13" s="49"/>
     </row>
     <row r="14" spans="1:13" ht="33">
       <c r="B14" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="37"/>
       <c r="M14" s="49"/>
     </row>
     <row r="15" spans="1:13" ht="33">
       <c r="B15" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M15" s="49"/>
     </row>
     <row r="16" spans="1:13" ht="33">
       <c r="B16" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M16" s="49"/>
     </row>
@@ -5374,19 +5553,19 @@
         <v>28</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="37"/>
       <c r="M17" s="49"/>
@@ -5396,298 +5575,305 @@
         <v>28</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="37"/>
       <c r="M18" s="49"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M19" s="49"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M20" s="49"/>
     </row>
     <row r="21" spans="2:13">
       <c r="E21" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M21" s="49"/>
     </row>
     <row r="22" spans="2:13">
       <c r="E22" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M22" s="49"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M23" s="49"/>
     </row>
     <row r="24" spans="2:13">
       <c r="E24" s="50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M24" s="49"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="50" t="s">
-        <v>101</v>
-      </c>
       <c r="F25" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="37"/>
       <c r="M25" s="49"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="37"/>
       <c r="M26" s="49"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="37"/>
       <c r="M27" s="49"/>
     </row>
     <row r="28" spans="2:13">
       <c r="C28" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="37"/>
       <c r="M28" s="49"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I29" s="37"/>
       <c r="M29" s="49"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M30" s="49"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>124</v>
-      </c>
       <c r="H31" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="I31" s="62" t="s">
+        <v>220</v>
+      </c>
       <c r="M31" s="51"/>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="I32" s="62" t="s">
+        <v>220</v>
+      </c>
       <c r="M32" s="51"/>
     </row>
     <row r="33" spans="2:13">
@@ -5695,764 +5881,898 @@
         <v>17</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>214</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>220</v>
+      </c>
       <c r="M33" s="51"/>
     </row>
     <row r="34" spans="2:13">
       <c r="C34" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="G34" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="I34" s="62" t="s">
+        <v>220</v>
+      </c>
       <c r="M34" s="51"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="37" t="s">
-        <v>82</v>
-      </c>
       <c r="C35" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D35" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" s="51"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="M36" s="49"/>
+    </row>
+    <row r="37" spans="2:13" ht="33">
+      <c r="B37" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="M35" s="49"/>
-    </row>
-    <row r="36" spans="2:13" ht="33">
-      <c r="B36" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I36" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="M36" s="51"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>145</v>
-      </c>
       <c r="F37" s="37" t="s">
-        <v>44</v>
+        <v>171</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>183</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="I37" s="62" t="s">
+        <v>182</v>
+      </c>
       <c r="M37" s="51"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="37" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D38" s="50" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="65" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I38" s="37"/>
       <c r="M38" s="51"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>173</v>
+        <v>43</v>
+      </c>
+      <c r="G39" s="65" t="s">
+        <v>145</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="62" t="s">
-        <v>205</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="I39" s="37"/>
       <c r="M39" s="51"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D40" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="M40" s="51"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="M41" s="51"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="E42" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="M40" s="51"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="E41" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="37"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>159</v>
-      </c>
       <c r="F42" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="50" t="s">
         <v>157</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="37"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="E43" s="50" t="s">
-        <v>158</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>44</v>
       </c>
       <c r="G43" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="E44" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="2:13" ht="33">
+      <c r="B46" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I43" s="37"/>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="2:13" ht="33">
-      <c r="B45" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="50" t="s">
+      <c r="H46" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" s="65" t="s">
+      <c r="F47" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="G47" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="37"/>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="33">
-      <c r="B47" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="65" t="s">
-        <v>169</v>
-      </c>
       <c r="H47" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" s="37"/>
+        <v>76</v>
+      </c>
+      <c r="I47" s="62" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="48" spans="2:13" ht="33">
       <c r="B48" s="37" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" s="65" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H48" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="2:9" ht="33">
+      <c r="B49" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="65" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="I49" s="62" t="s">
-        <v>184</v>
+      <c r="H49" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="37" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="G50" s="65" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="H50" s="62" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+      <c r="I50" s="62" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="2:9">
       <c r="B51" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G51" s="65" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="H51" s="62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="65" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="F52" s="37" t="s">
-        <v>44</v>
+      <c r="H52" s="62" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="2:9">
+      <c r="B53" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>216</v>
+      </c>
       <c r="F53" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H53" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:9">
+      <c r="B54" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>219</v>
+      </c>
       <c r="F54" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H54" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="2:9">
+      <c r="B55" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>217</v>
+      </c>
       <c r="F55" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H55" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="2:9">
+      <c r="B56" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="50" t="s">
+        <v>218</v>
+      </c>
       <c r="F56" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H56" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="2:9">
+      <c r="B57" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="50" t="s">
+        <v>229</v>
+      </c>
       <c r="F57" s="37" t="s">
-        <v>44</v>
+        <v>171</v>
+      </c>
+      <c r="H57" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="2:9">
+      <c r="B58" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>235</v>
+      </c>
       <c r="F58" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H58" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:9">
+      <c r="B59" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="50" t="s">
+        <v>235</v>
+      </c>
       <c r="F59" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H59" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="2:9">
+      <c r="B60" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>235</v>
+      </c>
       <c r="F60" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="H60" s="62" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="2:9">
       <c r="F61" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:9">
       <c r="F62" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="2:9">
       <c r="F63" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="2:9">
       <c r="F64" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="6:6">
       <c r="F79" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="6:6">
       <c r="F80" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="6:6">
       <c r="F86" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="6:6">
       <c r="F103" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="6:6">
       <c r="F104" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="6:6">
       <c r="F105" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="6:6">
       <c r="F106" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="6:6">
       <c r="F107" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="6:6">
       <c r="F108" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="6:6">
       <c r="F109" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="6:6">
       <c r="F110" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="6:6">
       <c r="F111" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="6:6">
       <c r="F112" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="6:6">
       <c r="F113" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="6:6">
       <c r="F114" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="6:6">
       <c r="F115" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="6:6">
       <c r="F116" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="6:6">
       <c r="F117" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="6:6">
       <c r="F118" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="6:6">
       <c r="F119" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="6:6">
       <c r="F120" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="6:6">
       <c r="F121" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="6:6">
       <c r="F122" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="6:6">
       <c r="F123" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="6:6">
       <c r="F124" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="6:6">
       <c r="F125" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="6:6">
       <c r="F126" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="6:6">
       <c r="F127" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="37" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +6795,7 @@
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C127">
+  <conditionalFormatting sqref="C4:C130">
     <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",C4)))</formula>
     </cfRule>
@@ -6537,95 +6857,95 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868E48E2-E25A-4566-B46C-B08BF966BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2003EF1-9F96-41F6-97C3-D89815650B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기획_직업" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="257">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,6 +1033,22 @@
   </si>
   <si>
     <t>기획_아이템 시트에 아이템 구매가, 판매가 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물약 구매 시 수량 선택 기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1127,7 +1143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1519,11 +1535,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1725,6 +1752,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1755,41 +1816,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2053,13 +2105,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>173525</xdr:rowOff>
@@ -2097,13 +2149,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>56867</xdr:rowOff>
@@ -2441,7 +2493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B481DD1C-D151-45F4-BE8D-C6D2A2BCEF98}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2489,7 +2541,7 @@
       <c r="L1" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="M1" s="96" t="s">
+      <c r="M1" s="86" t="s">
         <v>242</v>
       </c>
       <c r="N1" s="76" t="s">
@@ -2650,103 +2702,103 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
     </row>
     <row r="9" spans="1:16" ht="123" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="95" t="s">
+      <c r="L11" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="M11" s="96" t="s">
+      <c r="M11" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="N11" s="96" t="s">
+      <c r="N11" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="104" t="s">
+      <c r="O11" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="P11" s="104" t="s">
+      <c r="P11" s="92" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="99">
+      <c r="A12" s="88">
         <v>1</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="90">
         <f>C2</f>
         <v>5</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="90">
         <f t="shared" ref="D12:P12" si="1">D2</f>
         <v>10</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="90">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="90">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="90">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="90">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I12" s="101">
+      <c r="I12" s="90">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2762,10 +2814,10 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N12" s="101">
+      <c r="N12" s="90">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
@@ -2782,7 +2834,7 @@
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3">
@@ -2813,7 +2865,7 @@
       </c>
       <c r="J13" s="59"/>
       <c r="K13" s="59"/>
-      <c r="L13" s="103">
+      <c r="L13" s="59">
         <v>14</v>
       </c>
       <c r="M13" s="4" t="s">
@@ -2834,7 +2886,7 @@
       <c r="A14" s="4">
         <v>3</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="3">
@@ -2865,7 +2917,7 @@
       </c>
       <c r="J14" s="59"/>
       <c r="K14" s="59"/>
-      <c r="L14" s="103">
+      <c r="L14" s="59">
         <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -2886,7 +2938,7 @@
       <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3">
@@ -2917,7 +2969,7 @@
       </c>
       <c r="J15" s="59"/>
       <c r="K15" s="59"/>
-      <c r="L15" s="103">
+      <c r="L15" s="59">
         <v>33</v>
       </c>
       <c r="M15" s="4" t="s">
@@ -2938,7 +2990,7 @@
       <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3">
@@ -2969,7 +3021,7 @@
       </c>
       <c r="J16" s="59"/>
       <c r="K16" s="59"/>
-      <c r="L16" s="103">
+      <c r="L16" s="59">
         <f t="shared" ref="L16:L41" si="8">SUM(C16+D16)/2</f>
         <v>37.5</v>
       </c>
@@ -2992,7 +3044,7 @@
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="3">
@@ -3023,7 +3075,7 @@
       </c>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
-      <c r="L17" s="103">
+      <c r="L17" s="59">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
@@ -3045,7 +3097,7 @@
       <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3">
@@ -3076,7 +3128,7 @@
       </c>
       <c r="J18" s="59"/>
       <c r="K18" s="59"/>
-      <c r="L18" s="103">
+      <c r="L18" s="59">
         <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
@@ -3098,7 +3150,7 @@
       <c r="A19" s="4">
         <v>8</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="3">
@@ -3129,7 +3181,7 @@
       </c>
       <c r="J19" s="59"/>
       <c r="K19" s="59"/>
-      <c r="L19" s="103">
+      <c r="L19" s="59">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
@@ -3151,7 +3203,7 @@
       <c r="A20" s="4">
         <v>9</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3">
@@ -3182,7 +3234,7 @@
       </c>
       <c r="J20" s="59"/>
       <c r="K20" s="59"/>
-      <c r="L20" s="103">
+      <c r="L20" s="59">
         <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
@@ -3205,7 +3257,7 @@
       <c r="A21" s="4">
         <v>10</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3">
@@ -3236,7 +3288,7 @@
       </c>
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="103">
+      <c r="L21" s="59">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -3255,37 +3307,37 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="99">
+      <c r="A22" s="88">
         <v>1</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="90">
         <f>C3</f>
         <v>10</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="90">
         <f t="shared" ref="D22:P22" si="10">D3</f>
         <v>15</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="90">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="F22" s="101">
+      <c r="F22" s="90">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="90">
         <f t="shared" si="10"/>
         <v>400</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="90">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I22" s="90">
         <f t="shared" si="10"/>
         <v>125</v>
       </c>
@@ -3301,10 +3353,10 @@
         <f t="shared" si="10"/>
         <v>12.5</v>
       </c>
-      <c r="M22" s="99" t="s">
+      <c r="M22" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N22" s="101">
+      <c r="N22" s="90">
         <f t="shared" si="10"/>
         <v>10.5</v>
       </c>
@@ -3321,7 +3373,7 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="3">
@@ -3352,7 +3404,7 @@
       </c>
       <c r="J23" s="59"/>
       <c r="K23" s="59"/>
-      <c r="L23" s="103">
+      <c r="L23" s="59">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
@@ -3371,7 +3423,7 @@
       <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="3">
@@ -3402,7 +3454,7 @@
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="59"/>
-      <c r="L24" s="103">
+      <c r="L24" s="59">
         <f t="shared" si="8"/>
         <v>37.5</v>
       </c>
@@ -3421,7 +3473,7 @@
       <c r="A25" s="4">
         <v>4</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="3">
@@ -3452,7 +3504,7 @@
       </c>
       <c r="J25" s="59"/>
       <c r="K25" s="59"/>
-      <c r="L25" s="103">
+      <c r="L25" s="59">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
@@ -3471,7 +3523,7 @@
       <c r="A26" s="4">
         <v>5</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="3">
@@ -3502,7 +3554,7 @@
       </c>
       <c r="J26" s="59"/>
       <c r="K26" s="59"/>
-      <c r="L26" s="103">
+      <c r="L26" s="59">
         <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
@@ -3521,7 +3573,7 @@
       <c r="A27" s="4">
         <v>6</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="3">
@@ -3552,7 +3604,7 @@
       </c>
       <c r="J27" s="59"/>
       <c r="K27" s="59"/>
-      <c r="L27" s="103">
+      <c r="L27" s="59">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
@@ -3571,7 +3623,7 @@
       <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="3">
@@ -3602,7 +3654,7 @@
       </c>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="103">
+      <c r="L28" s="59">
         <f t="shared" si="8"/>
         <v>87.5</v>
       </c>
@@ -3621,7 +3673,7 @@
       <c r="A29" s="4">
         <v>8</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="3">
@@ -3652,7 +3704,7 @@
       </c>
       <c r="J29" s="59"/>
       <c r="K29" s="59"/>
-      <c r="L29" s="103">
+      <c r="L29" s="59">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -3671,7 +3723,7 @@
       <c r="A30" s="4">
         <v>9</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="3">
@@ -3702,7 +3754,7 @@
       </c>
       <c r="J30" s="59"/>
       <c r="K30" s="59"/>
-      <c r="L30" s="103">
+      <c r="L30" s="59">
         <f t="shared" si="8"/>
         <v>112.5</v>
       </c>
@@ -3721,7 +3773,7 @@
       <c r="A31" s="4">
         <v>10</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3">
@@ -3752,7 +3804,7 @@
       </c>
       <c r="J31" s="59"/>
       <c r="K31" s="59"/>
-      <c r="L31" s="103">
+      <c r="L31" s="59">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
@@ -3768,37 +3820,37 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="99">
+      <c r="A32" s="88">
         <v>1</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="90">
         <f>C4</f>
         <v>15</v>
       </c>
-      <c r="D32" s="101">
+      <c r="D32" s="90">
         <f t="shared" ref="D32:P32" si="14">D4</f>
         <v>20</v>
       </c>
-      <c r="E32" s="101">
+      <c r="E32" s="90">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="F32" s="101">
+      <c r="F32" s="90">
         <f t="shared" si="14"/>
         <v>5</v>
       </c>
-      <c r="G32" s="101">
+      <c r="G32" s="90">
         <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="H32" s="101">
+      <c r="H32" s="90">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="I32" s="101">
+      <c r="I32" s="90">
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
@@ -3814,10 +3866,10 @@
         <f t="shared" si="14"/>
         <v>17.5</v>
       </c>
-      <c r="M32" s="99" t="s">
+      <c r="M32" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N32" s="101">
+      <c r="N32" s="90">
         <f t="shared" si="14"/>
         <v>14.5</v>
       </c>
@@ -3834,7 +3886,7 @@
       <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="3">
@@ -3865,7 +3917,7 @@
       </c>
       <c r="J33" s="59"/>
       <c r="K33" s="59"/>
-      <c r="L33" s="103">
+      <c r="L33" s="59">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
@@ -3884,7 +3936,7 @@
       <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3">
@@ -3915,7 +3967,7 @@
       </c>
       <c r="J34" s="59"/>
       <c r="K34" s="59"/>
-      <c r="L34" s="103">
+      <c r="L34" s="59">
         <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
@@ -3934,7 +3986,7 @@
       <c r="A35" s="4">
         <v>4</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="3">
@@ -3965,7 +4017,7 @@
       </c>
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
-      <c r="L35" s="103">
+      <c r="L35" s="59">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
@@ -3984,7 +4036,7 @@
       <c r="A36" s="4">
         <v>5</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="3">
@@ -4015,7 +4067,7 @@
       </c>
       <c r="J36" s="59"/>
       <c r="K36" s="59"/>
-      <c r="L36" s="103">
+      <c r="L36" s="59">
         <f t="shared" si="8"/>
         <v>87.5</v>
       </c>
@@ -4035,7 +4087,7 @@
       <c r="A37" s="4">
         <v>6</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="3">
@@ -4066,7 +4118,7 @@
       </c>
       <c r="J37" s="59"/>
       <c r="K37" s="59"/>
-      <c r="L37" s="103">
+      <c r="L37" s="59">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
@@ -4085,7 +4137,7 @@
       <c r="A38" s="4">
         <v>7</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="3">
@@ -4116,7 +4168,7 @@
       </c>
       <c r="J38" s="59"/>
       <c r="K38" s="59"/>
-      <c r="L38" s="103">
+      <c r="L38" s="59">
         <f t="shared" si="8"/>
         <v>122.5</v>
       </c>
@@ -4135,7 +4187,7 @@
       <c r="A39" s="4">
         <v>8</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="3">
@@ -4166,7 +4218,7 @@
       </c>
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
-      <c r="L39" s="103">
+      <c r="L39" s="59">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
@@ -4185,7 +4237,7 @@
       <c r="A40" s="4">
         <v>9</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="3">
@@ -4216,7 +4268,7 @@
       </c>
       <c r="J40" s="59"/>
       <c r="K40" s="59"/>
-      <c r="L40" s="103">
+      <c r="L40" s="59">
         <f t="shared" si="8"/>
         <v>157.5</v>
       </c>
@@ -4236,7 +4288,7 @@
       <c r="A41" s="4">
         <v>10</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="3">
@@ -4267,7 +4319,7 @@
       </c>
       <c r="J41" s="59"/>
       <c r="K41" s="59"/>
-      <c r="L41" s="103">
+      <c r="L41" s="59">
         <f t="shared" si="8"/>
         <v>175</v>
       </c>
@@ -4291,111 +4343,111 @@
       <c r="A47" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="94" t="s">
+      <c r="D47" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="94" t="s">
+      <c r="E47" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="F47" s="94" t="s">
+      <c r="F47" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="94" t="s">
+      <c r="G47" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="94" t="s">
+      <c r="H47" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="I47" s="94" t="s">
+      <c r="I47" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="J47" s="95" t="s">
+      <c r="J47" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="95" t="s">
+      <c r="K47" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="94" t="s">
+      <c r="L47" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="M47" s="96" t="s">
+      <c r="M47" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="N47" s="96" t="s">
+      <c r="N47" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="O47" s="97" t="s">
+      <c r="O47" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="P47" s="97" t="s">
+      <c r="P47" s="87" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="99">
+      <c r="A48" s="88">
         <v>1</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="101">
+      <c r="C48" s="90">
         <f>C38</f>
         <v>105</v>
       </c>
-      <c r="D48" s="101">
-        <f t="shared" ref="D48:P48" si="20">D38</f>
+      <c r="D48" s="90">
+        <f t="shared" ref="D48:L48" si="20">D38</f>
         <v>140</v>
       </c>
-      <c r="E48" s="101">
+      <c r="E48" s="90">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="F48" s="101">
+      <c r="F48" s="90">
         <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="G48" s="101">
+      <c r="G48" s="90">
         <f t="shared" si="20"/>
         <v>600</v>
       </c>
-      <c r="H48" s="101">
+      <c r="H48" s="90">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="I48" s="101">
+      <c r="I48" s="90">
         <f t="shared" si="20"/>
         <v>330</v>
       </c>
-      <c r="J48" s="101">
+      <c r="J48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K48" s="101">
+      <c r="K48" s="90">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L48" s="101">
+      <c r="L48" s="90">
         <f t="shared" si="20"/>
         <v>122.5</v>
       </c>
-      <c r="M48" s="99" t="s">
+      <c r="M48" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N48" s="101">
+      <c r="N48" s="90">
         <f t="shared" ref="N48:P48" si="21">N38</f>
         <v>0</v>
       </c>
-      <c r="O48" s="101">
+      <c r="O48" s="90">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
-      <c r="P48" s="101">
+      <c r="P48" s="90">
         <f t="shared" si="21"/>
         <v>4</v>
       </c>
@@ -4404,7 +4456,7 @@
       <c r="A49" s="4">
         <v>2</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="3">
@@ -4426,7 +4478,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="59"/>
       <c r="K49" s="59"/>
-      <c r="L49" s="98">
+      <c r="L49" s="3">
         <v>14</v>
       </c>
       <c r="M49" s="4" t="s">
@@ -4447,7 +4499,7 @@
       <c r="A50" s="4">
         <v>3</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="3">
@@ -4469,7 +4521,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="59"/>
       <c r="K50" s="59"/>
-      <c r="L50" s="98">
+      <c r="L50" s="3">
         <v>20</v>
       </c>
       <c r="M50" s="4" t="s">
@@ -4490,7 +4542,7 @@
       <c r="A51" s="4">
         <v>4</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="3">
@@ -4512,7 +4564,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="59"/>
       <c r="K51" s="59"/>
-      <c r="L51" s="98">
+      <c r="L51" s="3">
         <v>33</v>
       </c>
       <c r="M51" s="4" t="s">
@@ -4533,7 +4585,7 @@
       <c r="A52" s="4">
         <v>5</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="3">
@@ -4555,8 +4607,8 @@
       <c r="I52" s="3"/>
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
-      <c r="L52" s="98">
-        <f t="shared" ref="L52:L77" si="23">SUM(C52+D52)/2</f>
+      <c r="L52" s="3">
+        <f t="shared" ref="L52:L57" si="23">SUM(C52+D52)/2</f>
         <v>612.5</v>
       </c>
       <c r="M52" s="4" t="s">
@@ -4578,7 +4630,7 @@
       <c r="A53" s="4">
         <v>6</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="3">
@@ -4600,7 +4652,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="59"/>
       <c r="K53" s="59"/>
-      <c r="L53" s="98">
+      <c r="L53" s="3">
         <f t="shared" si="23"/>
         <v>735</v>
       </c>
@@ -4622,7 +4674,7 @@
       <c r="A54" s="4">
         <v>7</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="3">
@@ -4644,7 +4696,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="59"/>
       <c r="K54" s="59"/>
-      <c r="L54" s="98">
+      <c r="L54" s="3">
         <f t="shared" si="23"/>
         <v>857.5</v>
       </c>
@@ -4666,7 +4718,7 @@
       <c r="A55" s="4">
         <v>8</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="3">
@@ -4688,7 +4740,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="59"/>
       <c r="K55" s="59"/>
-      <c r="L55" s="98">
+      <c r="L55" s="3">
         <f t="shared" si="23"/>
         <v>980</v>
       </c>
@@ -4710,7 +4762,7 @@
       <c r="A56" s="4">
         <v>9</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C56" s="3">
@@ -4732,7 +4784,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="59"/>
       <c r="K56" s="59"/>
-      <c r="L56" s="98">
+      <c r="L56" s="3">
         <f t="shared" si="23"/>
         <v>1102.5</v>
       </c>
@@ -4755,7 +4807,7 @@
       <c r="A57" s="4">
         <v>10</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="3">
@@ -4777,7 +4829,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="59"/>
       <c r="K57" s="59"/>
-      <c r="L57" s="98">
+      <c r="L57" s="3">
         <f t="shared" si="23"/>
         <v>1225</v>
       </c>
@@ -4796,64 +4848,64 @@
       </c>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="99">
+      <c r="A58" s="88">
         <v>1</v>
       </c>
-      <c r="B58" s="100" t="s">
+      <c r="B58" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="101">
+      <c r="C58" s="90">
         <f>C39</f>
         <v>120</v>
       </c>
-      <c r="D58" s="101">
-        <f t="shared" ref="D58:P58" si="25">D39</f>
+      <c r="D58" s="90">
+        <f t="shared" ref="D58:L58" si="25">D39</f>
         <v>160</v>
       </c>
-      <c r="E58" s="101">
+      <c r="E58" s="90">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="F58" s="101">
+      <c r="F58" s="90">
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="G58" s="101">
+      <c r="G58" s="90">
         <f t="shared" si="25"/>
         <v>650</v>
       </c>
-      <c r="H58" s="101">
+      <c r="H58" s="90">
         <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="I58" s="101">
+      <c r="I58" s="90">
         <f t="shared" si="25"/>
         <v>360</v>
       </c>
-      <c r="J58" s="101">
+      <c r="J58" s="90">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="K58" s="101">
+      <c r="K58" s="90">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L58" s="101">
+      <c r="L58" s="90">
         <f t="shared" si="25"/>
         <v>140</v>
       </c>
-      <c r="M58" s="99" t="s">
+      <c r="M58" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N58" s="101">
+      <c r="N58" s="90">
         <f t="shared" ref="N58:P58" si="26">N39</f>
         <v>0</v>
       </c>
-      <c r="O58" s="101">
+      <c r="O58" s="90">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="P58" s="101">
+      <c r="P58" s="90">
         <f t="shared" si="26"/>
         <v>2</v>
       </c>
@@ -4862,7 +4914,7 @@
       <c r="A59" s="4">
         <v>2</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="3">
@@ -4884,8 +4936,8 @@
       <c r="I59" s="3"/>
       <c r="J59" s="59"/>
       <c r="K59" s="59"/>
-      <c r="L59" s="98">
-        <f t="shared" ref="L59:L77" si="27">SUM(C59+D59)/2</f>
+      <c r="L59" s="3">
+        <f t="shared" ref="L59:L67" si="27">SUM(C59+D59)/2</f>
         <v>280</v>
       </c>
       <c r="M59" s="4" t="s">
@@ -4903,7 +4955,7 @@
       <c r="A60" s="4">
         <v>3</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C60" s="3">
@@ -4925,7 +4977,7 @@
       <c r="I60" s="3"/>
       <c r="J60" s="59"/>
       <c r="K60" s="59"/>
-      <c r="L60" s="98">
+      <c r="L60" s="3">
         <f t="shared" si="27"/>
         <v>420</v>
       </c>
@@ -4944,7 +4996,7 @@
       <c r="A61" s="4">
         <v>4</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="3">
@@ -4966,7 +5018,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="59"/>
       <c r="K61" s="59"/>
-      <c r="L61" s="98">
+      <c r="L61" s="3">
         <f t="shared" si="27"/>
         <v>560</v>
       </c>
@@ -4985,7 +5037,7 @@
       <c r="A62" s="4">
         <v>5</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="3">
@@ -5007,7 +5059,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="59"/>
       <c r="K62" s="59"/>
-      <c r="L62" s="98">
+      <c r="L62" s="3">
         <f t="shared" si="27"/>
         <v>700</v>
       </c>
@@ -5026,7 +5078,7 @@
       <c r="A63" s="4">
         <v>6</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C63" s="3">
@@ -5048,7 +5100,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="59"/>
       <c r="K63" s="59"/>
-      <c r="L63" s="98">
+      <c r="L63" s="3">
         <f t="shared" si="27"/>
         <v>840</v>
       </c>
@@ -5067,7 +5119,7 @@
       <c r="A64" s="4">
         <v>7</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="3">
@@ -5089,7 +5141,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="59"/>
       <c r="K64" s="59"/>
-      <c r="L64" s="98">
+      <c r="L64" s="3">
         <f t="shared" si="27"/>
         <v>980</v>
       </c>
@@ -5108,7 +5160,7 @@
       <c r="A65" s="4">
         <v>8</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="3">
@@ -5130,7 +5182,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="59"/>
       <c r="K65" s="59"/>
-      <c r="L65" s="98">
+      <c r="L65" s="3">
         <f t="shared" si="27"/>
         <v>1120</v>
       </c>
@@ -5149,7 +5201,7 @@
       <c r="A66" s="4">
         <v>9</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="3">
@@ -5171,7 +5223,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="59"/>
       <c r="K66" s="59"/>
-      <c r="L66" s="98">
+      <c r="L66" s="3">
         <f t="shared" si="27"/>
         <v>1260</v>
       </c>
@@ -5190,7 +5242,7 @@
       <c r="A67" s="4">
         <v>10</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="83" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="3">
@@ -5212,7 +5264,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="59"/>
       <c r="K67" s="59"/>
-      <c r="L67" s="98">
+      <c r="L67" s="3">
         <f t="shared" si="27"/>
         <v>1400</v>
       </c>
@@ -5228,64 +5280,64 @@
       </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="99">
+      <c r="A68" s="88">
         <v>1</v>
       </c>
-      <c r="B68" s="100" t="s">
+      <c r="B68" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="101">
+      <c r="C68" s="90">
         <f>C40</f>
         <v>135</v>
       </c>
-      <c r="D68" s="101">
-        <f t="shared" ref="D68:P68" si="28">D40</f>
+      <c r="D68" s="90">
+        <f t="shared" ref="D68:L68" si="28">D40</f>
         <v>180</v>
       </c>
-      <c r="E68" s="101">
+      <c r="E68" s="90">
         <f t="shared" si="28"/>
         <v>5</v>
       </c>
-      <c r="F68" s="101">
+      <c r="F68" s="90">
         <f t="shared" si="28"/>
         <v>45</v>
       </c>
-      <c r="G68" s="101">
+      <c r="G68" s="90">
         <f t="shared" si="28"/>
         <v>700</v>
       </c>
-      <c r="H68" s="101">
+      <c r="H68" s="90">
         <f t="shared" si="28"/>
         <v>15</v>
       </c>
-      <c r="I68" s="101">
+      <c r="I68" s="90">
         <f t="shared" si="28"/>
         <v>390</v>
       </c>
-      <c r="J68" s="101">
+      <c r="J68" s="90">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="K68" s="101">
+      <c r="K68" s="90">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L68" s="101">
+      <c r="L68" s="90">
         <f t="shared" si="28"/>
         <v>157.5</v>
       </c>
-      <c r="M68" s="99" t="s">
+      <c r="M68" s="88" t="s">
         <v>243</v>
       </c>
-      <c r="N68" s="101">
+      <c r="N68" s="90">
         <f t="shared" ref="N68:P68" si="29">N40</f>
         <v>0</v>
       </c>
-      <c r="O68" s="101">
+      <c r="O68" s="90">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="P68" s="101">
+      <c r="P68" s="90">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
@@ -5294,7 +5346,7 @@
       <c r="A69" s="4">
         <v>2</v>
       </c>
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C69" s="3">
@@ -5315,7 +5367,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="59"/>
       <c r="K69" s="59"/>
-      <c r="L69" s="98">
+      <c r="L69" s="3">
         <f t="shared" ref="L69:L77" si="30">SUM(C69+D69)/2</f>
         <v>190</v>
       </c>
@@ -5334,7 +5386,7 @@
       <c r="A70" s="4">
         <v>3</v>
       </c>
-      <c r="B70" s="93" t="s">
+      <c r="B70" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C70" s="3">
@@ -5355,7 +5407,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="59"/>
       <c r="K70" s="59"/>
-      <c r="L70" s="98">
+      <c r="L70" s="3">
         <f t="shared" si="30"/>
         <v>285</v>
       </c>
@@ -5374,7 +5426,7 @@
       <c r="A71" s="4">
         <v>4</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="3">
@@ -5395,7 +5447,7 @@
       <c r="I71" s="3"/>
       <c r="J71" s="59"/>
       <c r="K71" s="59"/>
-      <c r="L71" s="98">
+      <c r="L71" s="3">
         <f t="shared" si="30"/>
         <v>380</v>
       </c>
@@ -5414,7 +5466,7 @@
       <c r="A72" s="4">
         <v>5</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="3">
@@ -5435,7 +5487,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="59"/>
       <c r="K72" s="59"/>
-      <c r="L72" s="98">
+      <c r="L72" s="3">
         <f t="shared" si="30"/>
         <v>475</v>
       </c>
@@ -5455,7 +5507,7 @@
       <c r="A73" s="4">
         <v>6</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C73" s="3">
@@ -5476,7 +5528,7 @@
       <c r="I73" s="3"/>
       <c r="J73" s="59"/>
       <c r="K73" s="59"/>
-      <c r="L73" s="98">
+      <c r="L73" s="3">
         <f t="shared" si="30"/>
         <v>570</v>
       </c>
@@ -5495,7 +5547,7 @@
       <c r="A74" s="4">
         <v>7</v>
       </c>
-      <c r="B74" s="93" t="s">
+      <c r="B74" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C74" s="3">
@@ -5516,7 +5568,7 @@
       <c r="I74" s="3"/>
       <c r="J74" s="59"/>
       <c r="K74" s="59"/>
-      <c r="L74" s="98">
+      <c r="L74" s="3">
         <f t="shared" si="30"/>
         <v>665</v>
       </c>
@@ -5535,7 +5587,7 @@
       <c r="A75" s="4">
         <v>8</v>
       </c>
-      <c r="B75" s="93" t="s">
+      <c r="B75" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C75" s="3">
@@ -5556,7 +5608,7 @@
       <c r="I75" s="3"/>
       <c r="J75" s="59"/>
       <c r="K75" s="59"/>
-      <c r="L75" s="98">
+      <c r="L75" s="3">
         <f t="shared" si="30"/>
         <v>760</v>
       </c>
@@ -5575,7 +5627,7 @@
       <c r="A76" s="4">
         <v>9</v>
       </c>
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C76" s="3">
@@ -5596,7 +5648,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="59"/>
       <c r="K76" s="59"/>
-      <c r="L76" s="98">
+      <c r="L76" s="3">
         <f t="shared" si="30"/>
         <v>855</v>
       </c>
@@ -5616,7 +5668,7 @@
       <c r="A77" s="4">
         <v>10</v>
       </c>
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="83" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="3">
@@ -5637,7 +5689,7 @@
       <c r="I77" s="3"/>
       <c r="J77" s="59"/>
       <c r="K77" s="59"/>
-      <c r="L77" s="98">
+      <c r="L77" s="3">
         <f t="shared" si="30"/>
         <v>950</v>
       </c>
@@ -5977,24 +6029,24 @@
       <c r="O6"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
     </row>
     <row r="10" spans="1:15" ht="137.25" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6013,154 +6065,238 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D22D406-0FE4-425E-ADEF-786991B5079A}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="25.625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="25.625" customWidth="1"/>
+    <col min="2" max="27" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="77" customFormat="1">
+    <row r="1" spans="1:6" s="77" customFormat="1">
       <c r="A1" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="E1" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="F1" s="72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="13">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="13">
+        <v>500</v>
+      </c>
+      <c r="D2" s="13">
+        <v>5</v>
+      </c>
+      <c r="E2" s="13">
         <v>10</v>
       </c>
-      <c r="D2" s="14">
+      <c r="F2" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="13">
         <v>20</v>
       </c>
-      <c r="C3" s="13">
+      <c r="E3" s="13">
         <v>30</v>
       </c>
-      <c r="D3" s="14">
+      <c r="F3" s="14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="13">
+        <v>25000</v>
+      </c>
+      <c r="C4" s="13">
+        <v>12500</v>
+      </c>
+      <c r="D4" s="13">
         <v>70</v>
       </c>
-      <c r="C4" s="13">
+      <c r="E4" s="13">
         <v>100</v>
       </c>
-      <c r="D4" s="14">
+      <c r="F4" s="14">
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+    <row r="5" spans="1:6">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="13">
+        <v>500</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="13">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="13">
+        <v>25000</v>
+      </c>
+      <c r="C9" s="13">
+        <v>12500</v>
+      </c>
+      <c r="D9" s="13">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="70" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="70" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B12" s="3">
+        <v>200</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B13" s="3">
+        <v>500</v>
+      </c>
+      <c r="C13" s="3">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B15" s="3">
+        <v>200</v>
+      </c>
+      <c r="C15" s="3">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B16" s="3">
+        <v>500</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50</v>
+      </c>
+      <c r="D16" s="3">
         <v>100</v>
       </c>
     </row>
@@ -6169,45 +6305,51 @@
         <v>227</v>
       </c>
       <c r="B17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
     </row>
     <row r="21" spans="1:4" ht="126" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
     </row>
     <row r="24" spans="1:4" ht="76.5" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
   </mergeCells>
@@ -6242,10 +6384,10 @@
       <c r="B1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="83"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="10"/>
       <c r="F1" s="18"/>
       <c r="G1" s="35"/>
@@ -6266,11 +6408,11 @@
       <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="24" t="s">
         <v>37</v>
       </c>
@@ -8358,8 +8500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8380,16 +8522,16 @@
       <c r="B1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="88"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="39"/>
       <c r="F1" s="34" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="H1" s="66"/>
       <c r="I1" s="65"/>
@@ -8413,10 +8555,10 @@
       <c r="C3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="102"/>
       <c r="F3" s="46" t="s">
         <v>37</v>
       </c>
@@ -9431,7 +9573,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>203</v>
@@ -9680,7 +9822,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:9">
       <c r="B65" s="36" t="s">
         <v>178</v>
       </c>
@@ -9691,83 +9833,98 @@
         <v>252</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="H65" s="61" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>254</v>
+      </c>
       <c r="F66" s="36" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="H66" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="F67" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:9">
       <c r="F68" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:9">
       <c r="F69" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:9">
       <c r="F70" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:9">
       <c r="F71" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:9">
       <c r="F72" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:9">
       <c r="F73" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:9">
       <c r="F74" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:9">
       <c r="F75" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:9">
       <c r="F76" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:9">
       <c r="F77" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:9">
       <c r="F78" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:9">
       <c r="F79" s="36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:9">
       <c r="F80" s="36" t="s">
         <v>42</v>
       </c>

--- a/PrimerPasoRPG/기획+QA.xlsx
+++ b/PrimerPasoRPG/기획+QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYHONG\source\repos\PrimerPasoRPG\PrimerPasoRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2003EF1-9F96-41F6-97C3-D89815650B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6450C35-2DC0-479E-9F91-6B99411664C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="270">
   <si>
     <t>공격하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1049,6 +1049,58 @@
   </si>
   <si>
     <t>판매가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력/마나 포션 인벤토리에서 사용 가능하도록 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자를 위한 기본 체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급자를 위한 2단계 체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고수를 위한 3단계 체력 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자를 위한 기본 마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급자를 위한 2단계 마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고수를 위한 3단계 마나 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시 물약 사용 메뉴 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 공격 2. 아이템 사용(물약) 3. 도망가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 동일한 소모품(물약)은 갯수로 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 1단계 마나 물약 X 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1792,30 +1844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1842,6 +1870,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6068,7 +6120,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6229,6 +6281,9 @@
       <c r="D11" s="70" t="s">
         <v>221</v>
       </c>
+      <c r="E11" s="70" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
@@ -6243,6 +6298,9 @@
       <c r="D12" s="3">
         <v>50</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
@@ -6257,6 +6315,9 @@
       <c r="D13" s="3">
         <v>100</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
@@ -6271,6 +6332,9 @@
       <c r="D14" s="3">
         <v>500</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -6285,6 +6349,9 @@
       <c r="D15" s="3">
         <v>50</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -6299,8 +6366,11 @@
       <c r="D16" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>227</v>
       </c>
@@ -6313,38 +6383,41 @@
       <c r="D17" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="103" t="s">
+      <c r="E17" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-    </row>
-    <row r="21" spans="1:4" ht="126" customHeight="1">
-      <c r="A21" s="106" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+    </row>
+    <row r="21" spans="1:5" ht="126" customHeight="1">
+      <c r="A21" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="108"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="103" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="105"/>
-    </row>
-    <row r="24" spans="1:4" ht="76.5" customHeight="1">
-      <c r="A24" s="109" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+    </row>
+    <row r="24" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A24" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="111"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6363,7 +6436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C0BC92-96EB-4C7B-A3F5-3F0E8A8E7F08}">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -6384,10 +6457,10 @@
       <c r="B1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="95"/>
+      <c r="D1" s="104"/>
       <c r="E1" s="10"/>
       <c r="F1" s="18"/>
       <c r="G1" s="35"/>
@@ -6408,11 +6481,11 @@
       <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="24" t="s">
         <v>37</v>
       </c>
@@ -8498,10 +8571,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B03DAE-7C2C-40BD-A7FB-06E7A03B2CEF}">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -8522,16 +8595,16 @@
       <c r="B1" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="100"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="39"/>
       <c r="F1" s="34" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="61" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H1" s="66"/>
       <c r="I1" s="65"/>
@@ -8555,10 +8628,10 @@
       <c r="C3" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="110" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="46" t="s">
         <v>37</v>
       </c>
@@ -9622,10 +9695,13 @@
         <v>218</v>
       </c>
       <c r="F54" s="36" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="H54" s="61" t="s">
         <v>219</v>
+      </c>
+      <c r="I54" s="61" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="2:9">
@@ -9662,58 +9738,58 @@
         <v>217</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="H56" s="61" t="s">
         <v>219</v>
       </c>
+      <c r="I56" s="61" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="57" spans="2:9">
       <c r="B57" s="36" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="F57" s="36" t="s">
         <v>170</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="2:9">
       <c r="B58" s="36" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F58" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G58" s="64" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="H58" s="61" t="s">
         <v>219</v>
       </c>
       <c r="I58" s="61" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="2:9">
       <c r="B59" s="36" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C59" s="36" t="s">
         <v>130</v>
@@ -9724,6 +9800,9 @@
       <c r="F59" s="36" t="s">
         <v>229</v>
       </c>
+      <c r="G59" s="64" t="s">
+        <v>248</v>
+      </c>
       <c r="H59" s="61" t="s">
         <v>219</v>
       </c>
@@ -9733,7 +9812,7 @@
     </row>
     <row r="60" spans="2:9">
       <c r="B60" s="36" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C60" s="36" t="s">
         <v>130</v>
@@ -9756,15 +9835,18 @@
         <v>98</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="H61" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="61" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9776,7 +9858,7 @@
         <v>132</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F62" s="36" t="s">
         <v>42</v>
@@ -9787,13 +9869,13 @@
     </row>
     <row r="63" spans="2:9">
       <c r="B63" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F63" s="36" t="s">
         <v>42</v>
@@ -9804,19 +9886,16 @@
     </row>
     <row r="64" spans="2:9">
       <c r="B64" s="36" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F64" s="36" t="s">
         <v>42</v>
-      </c>
-      <c r="G64" s="64" t="s">
-        <v>251</v>
       </c>
       <c r="H64" s="61" t="s">
         <v>237</v>
@@ -9824,22 +9903,22 @@
     </row>
     <row r="65" spans="2:9">
       <c r="B65" s="36" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>170</v>
+        <v>42</v>
+      </c>
+      <c r="G65" s="64" t="s">
+        <v>251</v>
       </c>
       <c r="H65" s="61" t="s">
         <v>237</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -9847,31 +9926,76 @@
         <v>178</v>
       </c>
       <c r="C66" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="F66" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="H66" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="I66" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="61" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="33">
+      <c r="B69" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="H66" s="61" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="F67" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="F68" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+      <c r="D69" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>267</v>
+      </c>
       <c r="F69" s="36" t="s">
         <v>42</v>
+      </c>
+      <c r="H69" s="61" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="2:9">
@@ -10176,6 +10300,16 @@
     </row>
     <row r="130" spans="6:6">
       <c r="F130" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="36" t="s">
         <v>42</v>
       </c>
     </row>
@@ -10199,7 +10333,7 @@
       <formula>NOT(ISERROR(SEARCH("Pass",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C130">
+  <conditionalFormatting sqref="C4:C132">
     <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",C4)))</formula>
     </cfRule>
